--- a/System_Biletow/routes-and-distances.xlsx
+++ b/System_Biletow/routes-and-distances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\source\repos\System_Biletow\System_Biletow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC7B0CA7-43B1-4DCB-93D1-E5380442C528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BB5110-73C3-4E41-8B07-077873FE9A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BF7BFC58-7EBB-4F9A-8262-53262799B646}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{BF7BFC58-7EBB-4F9A-8262-53262799B646}"/>
   </bookViews>
   <sheets>
     <sheet name="Przemyśl Główny - Ustka" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t>Przemyśl Główny</t>
   </si>
@@ -220,14 +220,18 @@
   </si>
   <si>
     <t>do korekty!</t>
+  </si>
+  <si>
+    <t>czy wyświetlać</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -259,10 +263,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -597,25 +603,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F50AE4B-394D-4808-B118-C9772416601B}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="2" customWidth="1"/>
+    <col min="10" max="12" width="9.1796875" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.81640625" customWidth="1"/>
+    <col min="19" max="19" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.90625" customWidth="1"/>
+    <col min="23" max="23" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -628,65 +643,99 @@
       <c r="D1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="str">
-        <f>_xlfn.CONCAT("(",A2,", ",$H$2,B2)</f>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(E2,_xlfn.CONCAT("StationID = ",A2," OR ")," ")</f>
+        <v xml:space="preserve">StationID = 1 OR </v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT("(",A2,", ",$I$2,B2)</f>
         <v>(1, "Przemyśl Główny</v>
       </c>
-      <c r="F2" t="str">
-        <f>_xlfn.CONCAT(E2,$H$2,"), ")</f>
+      <c r="H2" t="str">
+        <f>_xlfn.CONCAT(G2,$I$2,"), ")</f>
         <v xml:space="preserve">(1, "Przemyśl Główny"), </v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>44</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" t="str">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>(N2-Q2)/60</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>MOD(N2, 60)</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>(O2-S2)/60</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>MOD(O2, 60)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <f>TIME(P2,Q2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <f>TIME(R2,S2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" t="str">
         <f>_xlfn.CONCAT("(1, ",A2,", ",A2,", ")</f>
         <v xml:space="preserve">(1, 1, 1, </v>
       </c>
-      <c r="P2" t="str">
-        <f>_xlfn.CONCAT(O2,M2,", ",N2,"), ")</f>
+      <c r="W2" t="str">
+        <f>_xlfn.CONCAT(V2,N2,", ",O2,"), ")</f>
         <v xml:space="preserve">(1, 1, 1, 0, 0), </v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -700,46 +749,77 @@
         <f>C3-C2</f>
         <v>1.6</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E45" si="0">_xlfn.CONCAT("(",A3,", ",$H$2,B3)</f>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f t="shared" ref="F3:F45" si="0">IF(E3,_xlfn.CONCAT("StationID = ",A3," OR ")," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G3" t="str">
+        <f>_xlfn.CONCAT("(",A3,", ",$I$2,B3)</f>
         <v>(2, "Przemyśl Zasanie</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F45" si="1">_xlfn.CONCAT(E3,$H$2,"), ")</f>
+      <c r="H3" t="str">
+        <f>_xlfn.CONCAT(G3,$I$2,"), ")</f>
         <v xml:space="preserve">(2, "Przemyśl Zasanie"), </v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <f>_xlfn.CONCAT("(",A2,", ",A3,", ")</f>
         <v xml:space="preserve">(1, 2, </v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>TEXT(D3,"##0,0")</f>
         <v>1,6</v>
       </c>
-      <c r="K3" t="str">
-        <f>SUBSTITUTE(J3,",",".")</f>
+      <c r="L3" t="str">
+        <f>SUBSTITUTE(K3,",",".")</f>
         <v>1.6</v>
       </c>
-      <c r="L3" t="str">
-        <f>_xlfn.CONCAT(I3,K3,"), ")</f>
+      <c r="M3" t="str">
+        <f>_xlfn.CONCAT(J3,L3,"), ")</f>
         <v xml:space="preserve">(1, 2, 1.6), </v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>3</v>
       </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O45" si="2">_xlfn.CONCAT("(1, ",A3,", ",A3,", ")</f>
+      <c r="P3">
+        <f t="shared" ref="P3:P45" si="1">(N3-Q3)/60</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q45" si="2">MOD(N3, 60)</f>
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R45" si="3">(O3-S3)/60</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S45" si="4">MOD(O3, 60)</f>
+        <v>3</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" ref="T3:T45" si="5">TIME(P3,Q3,0)</f>
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" ref="U3:U45" si="6">TIME(R3,S3,0)</f>
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="V3" t="str">
+        <f>_xlfn.CONCAT("(1, ",A3,", ",A3,", ")</f>
         <v xml:space="preserve">(1, 2, 2, </v>
       </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P45" si="3">_xlfn.CONCAT(O3,M3,", ",N3,"), ")</f>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W45" si="7">_xlfn.CONCAT(V3,N3,", ",O3,"), ")</f>
         <v xml:space="preserve">(1, 2, 2, 2, 3), </v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -750,49 +830,80 @@
         <v>21.2</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D45" si="4">C4-C3</f>
+        <f t="shared" ref="D4:D45" si="8">C4-C3</f>
         <v>19.599999999999998</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G4" t="str">
+        <f>_xlfn.CONCAT("(",A4,", ",$I$2,B4)</f>
         <v>(3, "Radymno</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="1"/>
+      <c r="H4" t="str">
+        <f>_xlfn.CONCAT(G4,$I$2,"), ")</f>
         <v xml:space="preserve">(3, "Radymno"), </v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" ref="I4:I45" si="5">_xlfn.CONCAT("(",A3,", ",A4,", ")</f>
+      <c r="J4" t="str">
+        <f>_xlfn.CONCAT("(",A3,", ",A4,", ")</f>
         <v xml:space="preserve">(2, 3, </v>
       </c>
-      <c r="J4" t="str">
-        <f t="shared" ref="J4:J45" si="6">TEXT(D4,"##0,0")</f>
+      <c r="K4" t="str">
+        <f>TEXT(D4,"##0,0")</f>
         <v>19,6</v>
       </c>
-      <c r="K4" t="str">
-        <f t="shared" ref="K4:K45" si="7">SUBSTITUTE(J4,",",".")</f>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L45" si="9">SUBSTITUTE(K4,",",".")</f>
         <v>19.6</v>
       </c>
-      <c r="L4" t="str">
-        <f t="shared" ref="L4:L45" si="8">_xlfn.CONCAT(I4,K4,"), ")</f>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M45" si="10">_xlfn.CONCAT(J4,L4,"), ")</f>
         <v xml:space="preserve">(2, 3, 19.6), </v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>16</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>17</v>
       </c>
-      <c r="O4" t="str">
-        <f t="shared" si="2"/>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" si="5"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="6"/>
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="V4" t="str">
+        <f>_xlfn.CONCAT("(1, ",A4,", ",A4,", ")</f>
         <v xml:space="preserve">(1, 3, 3, </v>
       </c>
-      <c r="P4" t="str">
-        <f t="shared" si="3"/>
+      <c r="W4" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">(1, 3, 3, 16, 17), </v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -803,49 +914,80 @@
         <v>35</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" si="8"/>
+        <v>13.8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G5" t="str">
+        <f>_xlfn.CONCAT("(",A5,", ",$I$2,B5)</f>
+        <v>(4, "Jarosław</v>
+      </c>
+      <c r="H5" t="str">
+        <f>_xlfn.CONCAT(G5,$I$2,"), ")</f>
+        <v xml:space="preserve">(4, "Jarosław"), </v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT("(",A4,", ",A5,", ")</f>
+        <v xml:space="preserve">(3, 4, </v>
+      </c>
+      <c r="K5" t="str">
+        <f>TEXT(D5,"##0,0")</f>
+        <v>13,8</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="9"/>
+        <v>13.8</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(3, 4, 13.8), </v>
+      </c>
+      <c r="N5">
+        <v>26</v>
+      </c>
+      <c r="O5">
+        <v>27</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="4"/>
-        <v>13.8</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>(4, "Jarosław</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(4, "Jarosław"), </v>
-      </c>
-      <c r="I5" t="str">
+        <v>27</v>
+      </c>
+      <c r="T5" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(3, 4, </v>
-      </c>
-      <c r="J5" t="str">
+        <v>1.8055555555555554E-2</v>
+      </c>
+      <c r="U5" s="4">
         <f t="shared" si="6"/>
-        <v>13,8</v>
-      </c>
-      <c r="K5" t="str">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="V5" t="str">
+        <f>_xlfn.CONCAT("(1, ",A5,", ",A5,", ")</f>
+        <v xml:space="preserve">(1, 4, 4, </v>
+      </c>
+      <c r="W5" t="str">
         <f t="shared" si="7"/>
-        <v>13.8</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(3, 4, 13.8), </v>
-      </c>
-      <c r="M5">
-        <v>26</v>
-      </c>
-      <c r="N5">
-        <v>27</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 4, 4, </v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 4, 4, 26, 27), </v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -856,49 +998,80 @@
         <v>49.9</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" si="8"/>
+        <v>14.899999999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G6" t="str">
+        <f>_xlfn.CONCAT("(",A6,", ",$I$2,B6)</f>
+        <v>(5, "Przeworsk</v>
+      </c>
+      <c r="H6" t="str">
+        <f>_xlfn.CONCAT(G6,$I$2,"), ")</f>
+        <v xml:space="preserve">(5, "Przeworsk"), </v>
+      </c>
+      <c r="J6" t="str">
+        <f>_xlfn.CONCAT("(",A5,", ",A6,", ")</f>
+        <v xml:space="preserve">(4, 5, </v>
+      </c>
+      <c r="K6" t="str">
+        <f>TEXT(D6,"##0,0")</f>
+        <v>14,9</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="9"/>
+        <v>14.9</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(4, 5, 14.9), </v>
+      </c>
+      <c r="N6">
+        <v>36</v>
+      </c>
+      <c r="O6">
+        <v>37</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="4"/>
-        <v>14.899999999999999</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>(5, "Przeworsk</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(5, "Przeworsk"), </v>
-      </c>
-      <c r="I6" t="str">
+        <v>37</v>
+      </c>
+      <c r="T6" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(4, 5, </v>
-      </c>
-      <c r="J6" t="str">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="U6" s="4">
         <f t="shared" si="6"/>
-        <v>14,9</v>
-      </c>
-      <c r="K6" t="str">
+        <v>2.5694444444444443E-2</v>
+      </c>
+      <c r="V6" t="str">
+        <f>_xlfn.CONCAT("(1, ",A6,", ",A6,", ")</f>
+        <v xml:space="preserve">(1, 5, 5, </v>
+      </c>
+      <c r="W6" t="str">
         <f t="shared" si="7"/>
-        <v>14.9</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(4, 5, 14.9), </v>
-      </c>
-      <c r="M6">
-        <v>36</v>
-      </c>
-      <c r="N6">
-        <v>37</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 5, 5, </v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 5, 5, 36, 37), </v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -909,49 +1082,80 @@
         <v>70.099999999999994</v>
       </c>
       <c r="D7" s="2">
+        <f t="shared" si="8"/>
+        <v>20.199999999999996</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G7" t="str">
+        <f>_xlfn.CONCAT("(",A7,", ",$I$2,B7)</f>
+        <v>(6, "Łańcut</v>
+      </c>
+      <c r="H7" t="str">
+        <f>_xlfn.CONCAT(G7,$I$2,"), ")</f>
+        <v xml:space="preserve">(6, "Łańcut"), </v>
+      </c>
+      <c r="J7" t="str">
+        <f>_xlfn.CONCAT("(",A6,", ",A7,", ")</f>
+        <v xml:space="preserve">(5, 6, </v>
+      </c>
+      <c r="K7" t="str">
+        <f>TEXT(D7,"##0,0")</f>
+        <v>20,2</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="9"/>
+        <v>20.2</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(5, 6, 20.2), </v>
+      </c>
+      <c r="N7">
+        <v>51</v>
+      </c>
+      <c r="O7">
+        <v>52</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="4"/>
-        <v>20.199999999999996</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>(6, "Łańcut</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(6, "Łańcut"), </v>
-      </c>
-      <c r="I7" t="str">
+        <v>52</v>
+      </c>
+      <c r="T7" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(5, 6, </v>
-      </c>
-      <c r="J7" t="str">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="U7" s="4">
         <f t="shared" si="6"/>
-        <v>20,2</v>
-      </c>
-      <c r="K7" t="str">
+        <v>3.6111111111111108E-2</v>
+      </c>
+      <c r="V7" t="str">
+        <f>_xlfn.CONCAT("(1, ",A7,", ",A7,", ")</f>
+        <v xml:space="preserve">(1, 6, 6, </v>
+      </c>
+      <c r="W7" t="str">
         <f t="shared" si="7"/>
-        <v>20.2</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(5, 6, 20.2), </v>
-      </c>
-      <c r="M7">
-        <v>51</v>
-      </c>
-      <c r="N7">
-        <v>52</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 6, 6, </v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 6, 6, 51, 52), </v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -962,49 +1166,80 @@
         <v>86.8</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" si="8"/>
+        <v>16.700000000000003</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">StationID = 7 OR </v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("(",A8,", ",$I$2,B8)</f>
+        <v>(7, "Rzeszów Główny</v>
+      </c>
+      <c r="H8" t="str">
+        <f>_xlfn.CONCAT(G8,$I$2,"), ")</f>
+        <v xml:space="preserve">(7, "Rzeszów Główny"), </v>
+      </c>
+      <c r="J8" t="str">
+        <f>_xlfn.CONCAT("(",A7,", ",A8,", ")</f>
+        <v xml:space="preserve">(6, 7, </v>
+      </c>
+      <c r="K8" t="str">
+        <f>TEXT(D8,"##0,0")</f>
+        <v>16,7</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="9"/>
+        <v>16.7</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(6, 7, 16.7), </v>
+      </c>
+      <c r="N8">
+        <v>62</v>
+      </c>
+      <c r="O8">
+        <v>65</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="4"/>
-        <v>16.700000000000003</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>(7, "Rzeszów Główny</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(7, "Rzeszów Główny"), </v>
-      </c>
-      <c r="I8" t="str">
+        <v>5</v>
+      </c>
+      <c r="T8" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(6, 7, </v>
-      </c>
-      <c r="J8" t="str">
+        <v>4.3055555555555555E-2</v>
+      </c>
+      <c r="U8" s="4">
         <f t="shared" si="6"/>
-        <v>16,7</v>
-      </c>
-      <c r="K8" t="str">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="V8" t="str">
+        <f>_xlfn.CONCAT("(1, ",A8,", ",A8,", ")</f>
+        <v xml:space="preserve">(1, 7, 7, </v>
+      </c>
+      <c r="W8" t="str">
         <f t="shared" si="7"/>
-        <v>16.7</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(6, 7, 16.7), </v>
-      </c>
-      <c r="M8">
-        <v>62</v>
-      </c>
-      <c r="N8">
-        <v>65</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 7, 7, </v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 7, 7, 62, 65), </v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1015,49 +1250,80 @@
         <v>112.5</v>
       </c>
       <c r="D9" s="2">
+        <f t="shared" si="8"/>
+        <v>25.700000000000003</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("(",A9,", ",$I$2,B9)</f>
+        <v>(8, "Sędziszów Małopolski</v>
+      </c>
+      <c r="H9" t="str">
+        <f>_xlfn.CONCAT(G9,$I$2,"), ")</f>
+        <v xml:space="preserve">(8, "Sędziszów Małopolski"), </v>
+      </c>
+      <c r="J9" t="str">
+        <f>_xlfn.CONCAT("(",A8,", ",A9,", ")</f>
+        <v xml:space="preserve">(7, 8, </v>
+      </c>
+      <c r="K9" t="str">
+        <f>TEXT(D9,"##0,0")</f>
+        <v>25,7</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="9"/>
+        <v>25.7</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(7, 8, 25.7), </v>
+      </c>
+      <c r="N9">
+        <v>78</v>
+      </c>
+      <c r="O9">
+        <v>80</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="4"/>
-        <v>25.700000000000003</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>(8, "Sędziszów Małopolski</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(8, "Sędziszów Małopolski"), </v>
-      </c>
-      <c r="I9" t="str">
+        <v>20</v>
+      </c>
+      <c r="T9" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(7, 8, </v>
-      </c>
-      <c r="J9" t="str">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="U9" s="4">
         <f t="shared" si="6"/>
-        <v>25,7</v>
-      </c>
-      <c r="K9" t="str">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="V9" t="str">
+        <f>_xlfn.CONCAT("(1, ",A9,", ",A9,", ")</f>
+        <v xml:space="preserve">(1, 8, 8, </v>
+      </c>
+      <c r="W9" t="str">
         <f t="shared" si="7"/>
-        <v>25.7</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(7, 8, 25.7), </v>
-      </c>
-      <c r="M9">
-        <v>78</v>
-      </c>
-      <c r="N9">
-        <v>80</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 8, 8, </v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 8, 8, 78, 80), </v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1068,49 +1334,80 @@
         <v>120.6</v>
       </c>
       <c r="D10" s="2">
+        <f t="shared" si="8"/>
+        <v>8.0999999999999943</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("(",A10,", ",$I$2,B10)</f>
+        <v>(9, "Ropczyce</v>
+      </c>
+      <c r="H10" t="str">
+        <f>_xlfn.CONCAT(G10,$I$2,"), ")</f>
+        <v xml:space="preserve">(9, "Ropczyce"), </v>
+      </c>
+      <c r="J10" t="str">
+        <f>_xlfn.CONCAT("(",A9,", ",A10,", ")</f>
+        <v xml:space="preserve">(8, 9, </v>
+      </c>
+      <c r="K10" t="str">
+        <f>TEXT(D10,"##0,0")</f>
+        <v>8,1</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="9"/>
+        <v>8.1</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(8, 9, 8.1), </v>
+      </c>
+      <c r="N10">
+        <v>85</v>
+      </c>
+      <c r="O10">
+        <v>87</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="4"/>
-        <v>8.0999999999999943</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>(9, "Ropczyce</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(9, "Ropczyce"), </v>
-      </c>
-      <c r="I10" t="str">
+        <v>27</v>
+      </c>
+      <c r="T10" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(8, 9, </v>
-      </c>
-      <c r="J10" t="str">
+        <v>5.9027777777777776E-2</v>
+      </c>
+      <c r="U10" s="4">
         <f t="shared" si="6"/>
-        <v>8,1</v>
-      </c>
-      <c r="K10" t="str">
+        <v>6.0416666666666667E-2</v>
+      </c>
+      <c r="V10" t="str">
+        <f>_xlfn.CONCAT("(1, ",A10,", ",A10,", ")</f>
+        <v xml:space="preserve">(1, 9, 9, </v>
+      </c>
+      <c r="W10" t="str">
         <f t="shared" si="7"/>
-        <v>8.1</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(8, 9, 8.1), </v>
-      </c>
-      <c r="M10">
-        <v>85</v>
-      </c>
-      <c r="N10">
-        <v>87</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 9, 9, </v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 9, 9, 85, 87), </v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1121,49 +1418,80 @@
         <v>133.69999999999999</v>
       </c>
       <c r="D11" s="2">
+        <f t="shared" si="8"/>
+        <v>13.099999999999994</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("(",A11,", ",$I$2,B11)</f>
+        <v>(10, "Dębica</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT(G11,$I$2,"), ")</f>
+        <v xml:space="preserve">(10, "Dębica"), </v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("(",A10,", ",A11,", ")</f>
+        <v xml:space="preserve">(9, 10, </v>
+      </c>
+      <c r="K11" t="str">
+        <f>TEXT(D11,"##0,0")</f>
+        <v>13,1</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="9"/>
+        <v>13.1</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(9, 10, 13.1), </v>
+      </c>
+      <c r="N11">
+        <v>94</v>
+      </c>
+      <c r="O11">
+        <v>96</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="4"/>
-        <v>13.099999999999994</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>(10, "Dębica</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(10, "Dębica"), </v>
-      </c>
-      <c r="I11" t="str">
+        <v>36</v>
+      </c>
+      <c r="T11" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(9, 10, </v>
-      </c>
-      <c r="J11" t="str">
+        <v>6.5277777777777782E-2</v>
+      </c>
+      <c r="U11" s="4">
         <f t="shared" si="6"/>
-        <v>13,1</v>
-      </c>
-      <c r="K11" t="str">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="V11" t="str">
+        <f>_xlfn.CONCAT("(1, ",A11,", ",A11,", ")</f>
+        <v xml:space="preserve">(1, 10, 10, </v>
+      </c>
+      <c r="W11" t="str">
         <f t="shared" si="7"/>
-        <v>13.1</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(9, 10, 13.1), </v>
-      </c>
-      <c r="M11">
-        <v>94</v>
-      </c>
-      <c r="N11">
-        <v>96</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 10, 10, </v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 10, 10, 94, 96), </v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1174,49 +1502,80 @@
         <v>166.9</v>
       </c>
       <c r="D12" s="2">
+        <f t="shared" si="8"/>
+        <v>33.200000000000017</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("(",A12,", ",$I$2,B12)</f>
+        <v>(11, "Tarnów</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT(G12,$I$2,"), ")</f>
+        <v xml:space="preserve">(11, "Tarnów"), </v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("(",A11,", ",A12,", ")</f>
+        <v xml:space="preserve">(10, 11, </v>
+      </c>
+      <c r="K12" t="str">
+        <f>TEXT(D12,"##0,0")</f>
+        <v>33,2</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="9"/>
+        <v>33.2</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(10, 11, 33.2), </v>
+      </c>
+      <c r="N12">
+        <v>112</v>
+      </c>
+      <c r="O12">
+        <v>114</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="4"/>
-        <v>33.200000000000017</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>(11, "Tarnów</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(11, "Tarnów"), </v>
-      </c>
-      <c r="I12" t="str">
+        <v>54</v>
+      </c>
+      <c r="T12" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(10, 11, </v>
-      </c>
-      <c r="J12" t="str">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="U12" s="4">
         <f t="shared" si="6"/>
-        <v>33,2</v>
-      </c>
-      <c r="K12" t="str">
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="V12" t="str">
+        <f>_xlfn.CONCAT("(1, ",A12,", ",A12,", ")</f>
+        <v xml:space="preserve">(1, 11, 11, </v>
+      </c>
+      <c r="W12" t="str">
         <f t="shared" si="7"/>
-        <v>33.2</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(10, 11, 33.2), </v>
-      </c>
-      <c r="M12">
-        <v>112</v>
-      </c>
-      <c r="N12">
-        <v>114</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 11, 11, </v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 11, 11, 112, 114), </v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1227,49 +1586,80 @@
         <v>193.4</v>
       </c>
       <c r="D13" s="2">
+        <f t="shared" si="8"/>
+        <v>26.5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G13" t="str">
+        <f>_xlfn.CONCAT("(",A13,", ",$I$2,B13)</f>
+        <v>(12, "Brzesko Okocim</v>
+      </c>
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT(G13,$I$2,"), ")</f>
+        <v xml:space="preserve">(12, "Brzesko Okocim"), </v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("(",A12,", ",A13,", ")</f>
+        <v xml:space="preserve">(11, 12, </v>
+      </c>
+      <c r="K13" t="str">
+        <f>TEXT(D13,"##0,0")</f>
+        <v>26,5</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="9"/>
+        <v>26.5</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(11, 12, 26.5), </v>
+      </c>
+      <c r="N13">
+        <v>127</v>
+      </c>
+      <c r="O13">
+        <v>128</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="4"/>
-        <v>26.5</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>(12, "Brzesko Okocim</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(12, "Brzesko Okocim"), </v>
-      </c>
-      <c r="I13" t="str">
+        <v>8</v>
+      </c>
+      <c r="T13" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(11, 12, </v>
-      </c>
-      <c r="J13" t="str">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="U13" s="4">
         <f t="shared" si="6"/>
-        <v>26,5</v>
-      </c>
-      <c r="K13" t="str">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="V13" t="str">
+        <f>_xlfn.CONCAT("(1, ",A13,", ",A13,", ")</f>
+        <v xml:space="preserve">(1, 12, 12, </v>
+      </c>
+      <c r="W13" t="str">
         <f t="shared" si="7"/>
-        <v>26.5</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(11, 12, 26.5), </v>
-      </c>
-      <c r="M13">
-        <v>127</v>
-      </c>
-      <c r="N13">
-        <v>128</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 12, 12, </v>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 12, 12, 127, 128), </v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1280,49 +1670,80 @@
         <v>206.3</v>
       </c>
       <c r="D14" s="2">
+        <f t="shared" si="8"/>
+        <v>12.900000000000006</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G14" t="str">
+        <f>_xlfn.CONCAT("(",A14,", ",$I$2,B14)</f>
+        <v>(13, "Bochnia</v>
+      </c>
+      <c r="H14" t="str">
+        <f>_xlfn.CONCAT(G14,$I$2,"), ")</f>
+        <v xml:space="preserve">(13, "Bochnia"), </v>
+      </c>
+      <c r="J14" t="str">
+        <f>_xlfn.CONCAT("(",A13,", ",A14,", ")</f>
+        <v xml:space="preserve">(12, 13, </v>
+      </c>
+      <c r="K14" t="str">
+        <f>TEXT(D14,"##0,0")</f>
+        <v>12,9</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="9"/>
+        <v>12.9</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(12, 13, 12.9), </v>
+      </c>
+      <c r="N14">
+        <v>135</v>
+      </c>
+      <c r="O14">
+        <v>137</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="4"/>
-        <v>12.900000000000006</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>(13, "Bochnia</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(13, "Bochnia"), </v>
-      </c>
-      <c r="I14" t="str">
+        <v>17</v>
+      </c>
+      <c r="T14" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(12, 13, </v>
-      </c>
-      <c r="J14" t="str">
+        <v>9.375E-2</v>
+      </c>
+      <c r="U14" s="4">
         <f t="shared" si="6"/>
-        <v>12,9</v>
-      </c>
-      <c r="K14" t="str">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="V14" t="str">
+        <f>_xlfn.CONCAT("(1, ",A14,", ",A14,", ")</f>
+        <v xml:space="preserve">(1, 13, 13, </v>
+      </c>
+      <c r="W14" t="str">
         <f t="shared" si="7"/>
-        <v>12.9</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(12, 13, 12.9), </v>
-      </c>
-      <c r="M14">
-        <v>135</v>
-      </c>
-      <c r="N14">
-        <v>137</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 13, 13, </v>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 13, 13, 135, 137), </v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1333,49 +1754,80 @@
         <v>240.2</v>
       </c>
       <c r="D15" s="2">
+        <f t="shared" si="8"/>
+        <v>33.899999999999977</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G15" t="str">
+        <f>_xlfn.CONCAT("(",A15,", ",$I$2,B15)</f>
+        <v>(14, "Kraków Płaszów</v>
+      </c>
+      <c r="H15" t="str">
+        <f>_xlfn.CONCAT(G15,$I$2,"), ")</f>
+        <v xml:space="preserve">(14, "Kraków Płaszów"), </v>
+      </c>
+      <c r="J15" t="str">
+        <f>_xlfn.CONCAT("(",A14,", ",A15,", ")</f>
+        <v xml:space="preserve">(13, 14, </v>
+      </c>
+      <c r="K15" t="str">
+        <f>TEXT(D15,"##0,0")</f>
+        <v>33,9</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="9"/>
+        <v>33.9</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(13, 14, 33.9), </v>
+      </c>
+      <c r="N15">
+        <v>154</v>
+      </c>
+      <c r="O15">
+        <v>158</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="4"/>
-        <v>33.899999999999977</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>(14, "Kraków Płaszów</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(14, "Kraków Płaszów"), </v>
-      </c>
-      <c r="I15" t="str">
+        <v>38</v>
+      </c>
+      <c r="T15" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(13, 14, </v>
-      </c>
-      <c r="J15" t="str">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="U15" s="4">
         <f t="shared" si="6"/>
-        <v>33,9</v>
-      </c>
-      <c r="K15" t="str">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="V15" t="str">
+        <f>_xlfn.CONCAT("(1, ",A15,", ",A15,", ")</f>
+        <v xml:space="preserve">(1, 14, 14, </v>
+      </c>
+      <c r="W15" t="str">
         <f t="shared" si="7"/>
-        <v>33.9</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(13, 14, 33.9), </v>
-      </c>
-      <c r="M15">
-        <v>154</v>
-      </c>
-      <c r="N15">
-        <v>158</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 14, 14, </v>
-      </c>
-      <c r="P15" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 14, 14, 154, 158), </v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1386,49 +1838,80 @@
         <v>244.6</v>
       </c>
       <c r="D16" s="2">
+        <f t="shared" si="8"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">StationID = 15 OR </v>
+      </c>
+      <c r="G16" t="str">
+        <f>_xlfn.CONCAT("(",A16,", ",$I$2,B16)</f>
+        <v>(15, "Kraków Główny</v>
+      </c>
+      <c r="H16" t="str">
+        <f>_xlfn.CONCAT(G16,$I$2,"), ")</f>
+        <v xml:space="preserve">(15, "Kraków Główny"), </v>
+      </c>
+      <c r="J16" t="str">
+        <f>_xlfn.CONCAT("(",A15,", ",A16,", ")</f>
+        <v xml:space="preserve">(14, 15, </v>
+      </c>
+      <c r="K16" t="str">
+        <f>TEXT(D16,"##0,0")</f>
+        <v>4,4</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="9"/>
+        <v>4.4</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(14, 15, 4.4), </v>
+      </c>
+      <c r="N16">
+        <v>162</v>
+      </c>
+      <c r="O16">
+        <v>168</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="4"/>
-        <v>4.4000000000000057</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>(15, "Kraków Główny</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(15, "Kraków Główny"), </v>
-      </c>
-      <c r="I16" t="str">
+        <v>48</v>
+      </c>
+      <c r="T16" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(14, 15, </v>
-      </c>
-      <c r="J16" t="str">
+        <v>0.1125</v>
+      </c>
+      <c r="U16" s="4">
         <f t="shared" si="6"/>
-        <v>4,4</v>
-      </c>
-      <c r="K16" t="str">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="V16" t="str">
+        <f>_xlfn.CONCAT("(1, ",A16,", ",A16,", ")</f>
+        <v xml:space="preserve">(1, 15, 15, </v>
+      </c>
+      <c r="W16" t="str">
         <f t="shared" si="7"/>
-        <v>4.4</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(14, 15, 4.4), </v>
-      </c>
-      <c r="M16">
-        <v>162</v>
-      </c>
-      <c r="N16">
-        <v>168</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 15, 15, </v>
-      </c>
-      <c r="P16" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 15, 15, 162, 168), </v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1439,49 +1922,80 @@
         <v>269.7</v>
       </c>
       <c r="D17" s="2">
+        <f t="shared" si="8"/>
+        <v>25.099999999999994</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G17" t="str">
+        <f>_xlfn.CONCAT("(",A17,", ",$I$2,B17)</f>
+        <v>(16, "Krzeszowice</v>
+      </c>
+      <c r="H17" t="str">
+        <f>_xlfn.CONCAT(G17,$I$2,"), ")</f>
+        <v xml:space="preserve">(16, "Krzeszowice"), </v>
+      </c>
+      <c r="J17" t="str">
+        <f>_xlfn.CONCAT("(",A16,", ",A17,", ")</f>
+        <v xml:space="preserve">(15, 16, </v>
+      </c>
+      <c r="K17" t="str">
+        <f>TEXT(D17,"##0,0")</f>
+        <v>25,1</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="9"/>
+        <v>25.1</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(15, 16, 25.1), </v>
+      </c>
+      <c r="N17">
+        <v>185</v>
+      </c>
+      <c r="O17">
+        <v>187</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="4"/>
-        <v>25.099999999999994</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>(16, "Krzeszowice</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(16, "Krzeszowice"), </v>
-      </c>
-      <c r="I17" t="str">
+        <v>7</v>
+      </c>
+      <c r="T17" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(15, 16, </v>
-      </c>
-      <c r="J17" t="str">
+        <v>0.12847222222222221</v>
+      </c>
+      <c r="U17" s="4">
         <f t="shared" si="6"/>
-        <v>25,1</v>
-      </c>
-      <c r="K17" t="str">
+        <v>0.12986111111111112</v>
+      </c>
+      <c r="V17" t="str">
+        <f>_xlfn.CONCAT("(1, ",A17,", ",A17,", ")</f>
+        <v xml:space="preserve">(1, 16, 16, </v>
+      </c>
+      <c r="W17" t="str">
         <f t="shared" si="7"/>
-        <v>25.1</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(15, 16, 25.1), </v>
-      </c>
-      <c r="M17">
-        <v>185</v>
-      </c>
-      <c r="N17">
-        <v>187</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 16, 16, </v>
-      </c>
-      <c r="P17" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 16, 16, 185, 187), </v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1492,49 +2006,80 @@
         <v>283.39999999999998</v>
       </c>
       <c r="D18" s="2">
+        <f t="shared" si="8"/>
+        <v>13.699999999999989</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G18" t="str">
+        <f>_xlfn.CONCAT("(",A18,", ",$I$2,B18)</f>
+        <v>(17, "Trzebinia</v>
+      </c>
+      <c r="H18" t="str">
+        <f>_xlfn.CONCAT(G18,$I$2,"), ")</f>
+        <v xml:space="preserve">(17, "Trzebinia"), </v>
+      </c>
+      <c r="J18" t="str">
+        <f>_xlfn.CONCAT("(",A17,", ",A18,", ")</f>
+        <v xml:space="preserve">(16, 17, </v>
+      </c>
+      <c r="K18" t="str">
+        <f>TEXT(D18,"##0,0")</f>
+        <v>13,7</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="9"/>
+        <v>13.7</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(16, 17, 13.7), </v>
+      </c>
+      <c r="N18">
+        <v>194</v>
+      </c>
+      <c r="O18">
+        <v>196</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="4"/>
-        <v>13.699999999999989</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>(17, "Trzebinia</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(17, "Trzebinia"), </v>
-      </c>
-      <c r="I18" t="str">
+        <v>16</v>
+      </c>
+      <c r="T18" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(16, 17, </v>
-      </c>
-      <c r="J18" t="str">
+        <v>0.13472222222222222</v>
+      </c>
+      <c r="U18" s="4">
         <f t="shared" si="6"/>
-        <v>13,7</v>
-      </c>
-      <c r="K18" t="str">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="V18" t="str">
+        <f>_xlfn.CONCAT("(1, ",A18,", ",A18,", ")</f>
+        <v xml:space="preserve">(1, 17, 17, </v>
+      </c>
+      <c r="W18" t="str">
         <f t="shared" si="7"/>
-        <v>13.7</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(16, 17, 13.7), </v>
-      </c>
-      <c r="M18">
-        <v>194</v>
-      </c>
-      <c r="N18">
-        <v>196</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 17, 17, </v>
-      </c>
-      <c r="P18" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 17, 17, 194, 196), </v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1545,49 +2090,80 @@
         <v>299.3</v>
       </c>
       <c r="D19" s="2">
+        <f t="shared" si="8"/>
+        <v>15.900000000000034</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G19" t="str">
+        <f>_xlfn.CONCAT("(",A19,", ",$I$2,B19)</f>
+        <v>(18, "Jaworzno Szczakowa</v>
+      </c>
+      <c r="H19" t="str">
+        <f>_xlfn.CONCAT(G19,$I$2,"), ")</f>
+        <v xml:space="preserve">(18, "Jaworzno Szczakowa"), </v>
+      </c>
+      <c r="J19" t="str">
+        <f>_xlfn.CONCAT("(",A18,", ",A19,", ")</f>
+        <v xml:space="preserve">(17, 18, </v>
+      </c>
+      <c r="K19" t="str">
+        <f>TEXT(D19,"##0,0")</f>
+        <v>15,9</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="9"/>
+        <v>15.9</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(17, 18, 15.9), </v>
+      </c>
+      <c r="N19">
+        <v>205</v>
+      </c>
+      <c r="O19">
+        <v>214</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="4"/>
-        <v>15.900000000000034</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>(18, "Jaworzno Szczakowa</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(18, "Jaworzno Szczakowa"), </v>
-      </c>
-      <c r="I19" t="str">
+        <v>34</v>
+      </c>
+      <c r="T19" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(17, 18, </v>
-      </c>
-      <c r="J19" t="str">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="U19" s="4">
         <f t="shared" si="6"/>
-        <v>15,9</v>
-      </c>
-      <c r="K19" t="str">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="V19" t="str">
+        <f>_xlfn.CONCAT("(1, ",A19,", ",A19,", ")</f>
+        <v xml:space="preserve">(1, 18, 18, </v>
+      </c>
+      <c r="W19" t="str">
         <f t="shared" si="7"/>
-        <v>15.9</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(17, 18, 15.9), </v>
-      </c>
-      <c r="M19">
-        <v>205</v>
-      </c>
-      <c r="N19">
-        <v>214</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 18, 18, </v>
-      </c>
-      <c r="P19" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 18, 18, 205, 214), </v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1598,49 +2174,80 @@
         <v>311.7</v>
       </c>
       <c r="D20" s="2">
+        <f t="shared" si="8"/>
+        <v>12.399999999999977</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G20" t="str">
+        <f>_xlfn.CONCAT("(",A20,", ",$I$2,B20)</f>
+        <v>(19, "Mysłowice</v>
+      </c>
+      <c r="H20" t="str">
+        <f>_xlfn.CONCAT(G20,$I$2,"), ")</f>
+        <v xml:space="preserve">(19, "Mysłowice"), </v>
+      </c>
+      <c r="J20" t="str">
+        <f>_xlfn.CONCAT("(",A19,", ",A20,", ")</f>
+        <v xml:space="preserve">(18, 19, </v>
+      </c>
+      <c r="K20" t="str">
+        <f>TEXT(D20,"##0,0")</f>
+        <v>12,4</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="9"/>
+        <v>12.4</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(18, 19, 12.4), </v>
+      </c>
+      <c r="N20">
+        <v>222</v>
+      </c>
+      <c r="O20">
+        <v>225</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="4"/>
-        <v>12.399999999999977</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>(19, "Mysłowice</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(19, "Mysłowice"), </v>
-      </c>
-      <c r="I20" t="str">
+        <v>45</v>
+      </c>
+      <c r="T20" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(18, 19, </v>
-      </c>
-      <c r="J20" t="str">
+        <v>0.15416666666666667</v>
+      </c>
+      <c r="U20" s="4">
         <f t="shared" si="6"/>
-        <v>12,4</v>
-      </c>
-      <c r="K20" t="str">
+        <v>0.15625</v>
+      </c>
+      <c r="V20" t="str">
+        <f>_xlfn.CONCAT("(1, ",A20,", ",A20,", ")</f>
+        <v xml:space="preserve">(1, 19, 19, </v>
+      </c>
+      <c r="W20" t="str">
         <f t="shared" si="7"/>
-        <v>12.4</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(18, 19, 12.4), </v>
-      </c>
-      <c r="M20">
-        <v>222</v>
-      </c>
-      <c r="N20">
-        <v>225</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 19, 19, </v>
-      </c>
-      <c r="P20" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 19, 19, 222, 225), </v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1651,49 +2258,80 @@
         <v>321.8</v>
       </c>
       <c r="D21" s="2">
+        <f t="shared" si="8"/>
+        <v>10.100000000000023</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">StationID = 20 OR </v>
+      </c>
+      <c r="G21" t="str">
+        <f>_xlfn.CONCAT("(",A21,", ",$I$2,B21)</f>
+        <v>(20, "Katowice</v>
+      </c>
+      <c r="H21" t="str">
+        <f>_xlfn.CONCAT(G21,$I$2,"), ")</f>
+        <v xml:space="preserve">(20, "Katowice"), </v>
+      </c>
+      <c r="J21" t="str">
+        <f>_xlfn.CONCAT("(",A20,", ",A21,", ")</f>
+        <v xml:space="preserve">(19, 20, </v>
+      </c>
+      <c r="K21" t="str">
+        <f>TEXT(D21,"##0,0")</f>
+        <v>10,1</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="9"/>
+        <v>10.1</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(19, 20, 10.1), </v>
+      </c>
+      <c r="N21">
+        <v>238</v>
+      </c>
+      <c r="O21">
+        <v>241</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S21">
         <f t="shared" si="4"/>
-        <v>10.100000000000023</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>(20, "Katowice</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(20, "Katowice"), </v>
-      </c>
-      <c r="I21" t="str">
+        <v>1</v>
+      </c>
+      <c r="T21" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(19, 20, </v>
-      </c>
-      <c r="J21" t="str">
+        <v>0.16527777777777777</v>
+      </c>
+      <c r="U21" s="4">
         <f t="shared" si="6"/>
-        <v>10,1</v>
-      </c>
-      <c r="K21" t="str">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="V21" t="str">
+        <f>_xlfn.CONCAT("(1, ",A21,", ",A21,", ")</f>
+        <v xml:space="preserve">(1, 20, 20, </v>
+      </c>
+      <c r="W21" t="str">
         <f t="shared" si="7"/>
-        <v>10.1</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(19, 20, 10.1), </v>
-      </c>
-      <c r="M21">
-        <v>238</v>
-      </c>
-      <c r="N21">
-        <v>241</v>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 20, 20, </v>
-      </c>
-      <c r="P21" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 20, 20, 238, 241), </v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1704,49 +2342,80 @@
         <v>340.3</v>
       </c>
       <c r="D22" s="2">
+        <f t="shared" si="8"/>
+        <v>18.5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G22" t="str">
+        <f>_xlfn.CONCAT("(",A22,", ",$I$2,B22)</f>
+        <v>(21, "Zabrze</v>
+      </c>
+      <c r="H22" t="str">
+        <f>_xlfn.CONCAT(G22,$I$2,"), ")</f>
+        <v xml:space="preserve">(21, "Zabrze"), </v>
+      </c>
+      <c r="J22" t="str">
+        <f>_xlfn.CONCAT("(",A21,", ",A22,", ")</f>
+        <v xml:space="preserve">(20, 21, </v>
+      </c>
+      <c r="K22" t="str">
+        <f>TEXT(D22,"##0,0")</f>
+        <v>18,5</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="9"/>
+        <v>18.5</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(20, 21, 18.5), </v>
+      </c>
+      <c r="N22">
+        <v>254</v>
+      </c>
+      <c r="O22">
+        <v>256</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="4"/>
-        <v>18.5</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>(21, "Zabrze</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(21, "Zabrze"), </v>
-      </c>
-      <c r="I22" t="str">
+        <v>16</v>
+      </c>
+      <c r="T22" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(20, 21, </v>
-      </c>
-      <c r="J22" t="str">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="U22" s="4">
         <f t="shared" si="6"/>
-        <v>18,5</v>
-      </c>
-      <c r="K22" t="str">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="V22" t="str">
+        <f>_xlfn.CONCAT("(1, ",A22,", ",A22,", ")</f>
+        <v xml:space="preserve">(1, 21, 21, </v>
+      </c>
+      <c r="W22" t="str">
         <f t="shared" si="7"/>
-        <v>18.5</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(20, 21, 18.5), </v>
-      </c>
-      <c r="M22">
-        <v>254</v>
-      </c>
-      <c r="N22">
-        <v>256</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 21, 21, </v>
-      </c>
-      <c r="P22" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 21, 21, 254, 256), </v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1757,49 +2426,80 @@
         <v>348.5</v>
       </c>
       <c r="D23" s="2">
+        <f t="shared" si="8"/>
+        <v>8.1999999999999886</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G23" t="str">
+        <f>_xlfn.CONCAT("(",A23,", ",$I$2,B23)</f>
+        <v>(22, "Gliwice</v>
+      </c>
+      <c r="H23" t="str">
+        <f>_xlfn.CONCAT(G23,$I$2,"), ")</f>
+        <v xml:space="preserve">(22, "Gliwice"), </v>
+      </c>
+      <c r="J23" t="str">
+        <f>_xlfn.CONCAT("(",A22,", ",A23,", ")</f>
+        <v xml:space="preserve">(21, 22, </v>
+      </c>
+      <c r="K23" t="str">
+        <f>TEXT(D23,"##0,0")</f>
+        <v>8,2</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="9"/>
+        <v>8.2</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(21, 22, 8.2), </v>
+      </c>
+      <c r="N23">
+        <v>263</v>
+      </c>
+      <c r="O23">
+        <v>273</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="4"/>
-        <v>8.1999999999999886</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>(22, "Gliwice</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(22, "Gliwice"), </v>
-      </c>
-      <c r="I23" t="str">
+        <v>33</v>
+      </c>
+      <c r="T23" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(21, 22, </v>
-      </c>
-      <c r="J23" t="str">
+        <v>0.18263888888888888</v>
+      </c>
+      <c r="U23" s="4">
         <f t="shared" si="6"/>
-        <v>8,2</v>
-      </c>
-      <c r="K23" t="str">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="V23" t="str">
+        <f>_xlfn.CONCAT("(1, ",A23,", ",A23,", ")</f>
+        <v xml:space="preserve">(1, 22, 22, </v>
+      </c>
+      <c r="W23" t="str">
         <f t="shared" si="7"/>
-        <v>8.2</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(21, 22, 8.2), </v>
-      </c>
-      <c r="M23">
-        <v>263</v>
-      </c>
-      <c r="N23">
-        <v>273</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 22, 22, </v>
-      </c>
-      <c r="P23" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 22, 22, 263, 273), </v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1810,49 +2510,80 @@
         <v>386.8</v>
       </c>
       <c r="D24" s="2">
+        <f t="shared" si="8"/>
+        <v>38.300000000000011</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G24" t="str">
+        <f>_xlfn.CONCAT("(",A24,", ",$I$2,B24)</f>
+        <v>(23, "Strzelce Opolskie</v>
+      </c>
+      <c r="H24" t="str">
+        <f>_xlfn.CONCAT(G24,$I$2,"), ")</f>
+        <v xml:space="preserve">(23, "Strzelce Opolskie"), </v>
+      </c>
+      <c r="J24" t="str">
+        <f>_xlfn.CONCAT("(",A23,", ",A24,", ")</f>
+        <v xml:space="preserve">(22, 23, </v>
+      </c>
+      <c r="K24" t="str">
+        <f>TEXT(D24,"##0,0")</f>
+        <v>38,3</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="9"/>
+        <v>38.3</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(22, 23, 38.3), </v>
+      </c>
+      <c r="N24">
+        <v>302</v>
+      </c>
+      <c r="O24">
+        <v>303</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="4"/>
-        <v>38.300000000000011</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>(23, "Strzelce Opolskie</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(23, "Strzelce Opolskie"), </v>
-      </c>
-      <c r="I24" t="str">
+        <v>3</v>
+      </c>
+      <c r="T24" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(22, 23, </v>
-      </c>
-      <c r="J24" t="str">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="U24" s="4">
         <f t="shared" si="6"/>
-        <v>38,3</v>
-      </c>
-      <c r="K24" t="str">
+        <v>0.21041666666666667</v>
+      </c>
+      <c r="V24" t="str">
+        <f>_xlfn.CONCAT("(1, ",A24,", ",A24,", ")</f>
+        <v xml:space="preserve">(1, 23, 23, </v>
+      </c>
+      <c r="W24" t="str">
         <f t="shared" si="7"/>
-        <v>38.3</v>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(22, 23, 38.3), </v>
-      </c>
-      <c r="M24">
-        <v>302</v>
-      </c>
-      <c r="N24">
-        <v>303</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 23, 23, </v>
-      </c>
-      <c r="P24" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 23, 23, 302, 303), </v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1863,49 +2594,80 @@
         <v>419.2</v>
       </c>
       <c r="D25" s="2">
+        <f t="shared" si="8"/>
+        <v>32.399999999999977</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G25" t="str">
+        <f>_xlfn.CONCAT("(",A25,", ",$I$2,B25)</f>
+        <v>(24, "Opole Główne</v>
+      </c>
+      <c r="H25" t="str">
+        <f>_xlfn.CONCAT(G25,$I$2,"), ")</f>
+        <v xml:space="preserve">(24, "Opole Główne"), </v>
+      </c>
+      <c r="J25" t="str">
+        <f>_xlfn.CONCAT("(",A24,", ",A25,", ")</f>
+        <v xml:space="preserve">(23, 24, </v>
+      </c>
+      <c r="K25" t="str">
+        <f>TEXT(D25,"##0,0")</f>
+        <v>32,4</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="9"/>
+        <v>32.4</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(23, 24, 32.4), </v>
+      </c>
+      <c r="N25">
+        <v>323</v>
+      </c>
+      <c r="O25">
+        <v>326</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="4"/>
-        <v>32.399999999999977</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>(24, "Opole Główne</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(24, "Opole Główne"), </v>
-      </c>
-      <c r="I25" t="str">
+        <v>26</v>
+      </c>
+      <c r="T25" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(23, 24, </v>
-      </c>
-      <c r="J25" t="str">
+        <v>0.22430555555555556</v>
+      </c>
+      <c r="U25" s="4">
         <f t="shared" si="6"/>
-        <v>32,4</v>
-      </c>
-      <c r="K25" t="str">
+        <v>0.22638888888888889</v>
+      </c>
+      <c r="V25" t="str">
+        <f>_xlfn.CONCAT("(1, ",A25,", ",A25,", ")</f>
+        <v xml:space="preserve">(1, 24, 24, </v>
+      </c>
+      <c r="W25" t="str">
         <f t="shared" si="7"/>
-        <v>32.4</v>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(23, 24, 32.4), </v>
-      </c>
-      <c r="M25">
-        <v>323</v>
-      </c>
-      <c r="N25">
-        <v>326</v>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 24, 24, </v>
-      </c>
-      <c r="P25" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 24, 24, 323, 326), </v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1916,49 +2678,80 @@
         <v>459.3</v>
       </c>
       <c r="D26" s="2">
+        <f t="shared" si="8"/>
+        <v>40.100000000000023</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G26" t="str">
+        <f>_xlfn.CONCAT("(",A26,", ",$I$2,B26)</f>
+        <v>(25, "Brzeg</v>
+      </c>
+      <c r="H26" t="str">
+        <f>_xlfn.CONCAT(G26,$I$2,"), ")</f>
+        <v xml:space="preserve">(25, "Brzeg"), </v>
+      </c>
+      <c r="J26" t="str">
+        <f>_xlfn.CONCAT("(",A25,", ",A26,", ")</f>
+        <v xml:space="preserve">(24, 25, </v>
+      </c>
+      <c r="K26" t="str">
+        <f>TEXT(D26,"##0,0")</f>
+        <v>40,1</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="9"/>
+        <v>40.1</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(24, 25, 40.1), </v>
+      </c>
+      <c r="N26">
+        <v>344</v>
+      </c>
+      <c r="O26">
+        <v>345</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S26">
         <f t="shared" si="4"/>
-        <v>40.100000000000023</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>(25, "Brzeg</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(25, "Brzeg"), </v>
-      </c>
-      <c r="I26" t="str">
+        <v>45</v>
+      </c>
+      <c r="T26" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(24, 25, </v>
-      </c>
-      <c r="J26" t="str">
+        <v>0.2388888888888889</v>
+      </c>
+      <c r="U26" s="4">
         <f t="shared" si="6"/>
-        <v>40,1</v>
-      </c>
-      <c r="K26" t="str">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="V26" t="str">
+        <f>_xlfn.CONCAT("(1, ",A26,", ",A26,", ")</f>
+        <v xml:space="preserve">(1, 25, 25, </v>
+      </c>
+      <c r="W26" t="str">
         <f t="shared" si="7"/>
-        <v>40.1</v>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(24, 25, 40.1), </v>
-      </c>
-      <c r="M26">
-        <v>344</v>
-      </c>
-      <c r="N26">
-        <v>345</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 25, 25, </v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 25, 25, 344, 345), </v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1969,49 +2762,80 @@
         <v>474.4</v>
       </c>
       <c r="D27" s="2">
+        <f t="shared" si="8"/>
+        <v>15.099999999999966</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G27" t="str">
+        <f>_xlfn.CONCAT("(",A27,", ",$I$2,B27)</f>
+        <v>(26, "Oława</v>
+      </c>
+      <c r="H27" t="str">
+        <f>_xlfn.CONCAT(G27,$I$2,"), ")</f>
+        <v xml:space="preserve">(26, "Oława"), </v>
+      </c>
+      <c r="J27" t="str">
+        <f>_xlfn.CONCAT("(",A26,", ",A27,", ")</f>
+        <v xml:space="preserve">(25, 26, </v>
+      </c>
+      <c r="K27" t="str">
+        <f>TEXT(D27,"##0,0")</f>
+        <v>15,1</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="9"/>
+        <v>15.1</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(25, 26, 15.1), </v>
+      </c>
+      <c r="N27">
+        <v>354</v>
+      </c>
+      <c r="O27">
+        <v>355</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S27">
         <f t="shared" si="4"/>
-        <v>15.099999999999966</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>(26, "Oława</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(26, "Oława"), </v>
-      </c>
-      <c r="I27" t="str">
+        <v>55</v>
+      </c>
+      <c r="T27" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(25, 26, </v>
-      </c>
-      <c r="J27" t="str">
+        <v>0.24583333333333332</v>
+      </c>
+      <c r="U27" s="4">
         <f t="shared" si="6"/>
-        <v>15,1</v>
-      </c>
-      <c r="K27" t="str">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="V27" t="str">
+        <f>_xlfn.CONCAT("(1, ",A27,", ",A27,", ")</f>
+        <v xml:space="preserve">(1, 26, 26, </v>
+      </c>
+      <c r="W27" t="str">
         <f t="shared" si="7"/>
-        <v>15.1</v>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(25, 26, 15.1), </v>
-      </c>
-      <c r="M27">
-        <v>354</v>
-      </c>
-      <c r="N27">
-        <v>355</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 26, 26, </v>
-      </c>
-      <c r="P27" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 26, 26, 354, 355), </v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2022,49 +2846,80 @@
         <v>500.9</v>
       </c>
       <c r="D28" s="2">
+        <f t="shared" si="8"/>
+        <v>26.5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">StationID = 27 OR </v>
+      </c>
+      <c r="G28" t="str">
+        <f>_xlfn.CONCAT("(",A28,", ",$I$2,B28)</f>
+        <v>(27, "Wrocław Główny</v>
+      </c>
+      <c r="H28" t="str">
+        <f>_xlfn.CONCAT(G28,$I$2,"), ")</f>
+        <v xml:space="preserve">(27, "Wrocław Główny"), </v>
+      </c>
+      <c r="J28" t="str">
+        <f>_xlfn.CONCAT("(",A27,", ",A28,", ")</f>
+        <v xml:space="preserve">(26, 27, </v>
+      </c>
+      <c r="K28" t="str">
+        <f>TEXT(D28,"##0,0")</f>
+        <v>26,5</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="9"/>
+        <v>26.5</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(26, 27, 26.5), </v>
+      </c>
+      <c r="N28">
+        <v>372</v>
+      </c>
+      <c r="O28">
+        <v>377</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S28">
         <f t="shared" si="4"/>
-        <v>26.5</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>(27, "Wrocław Główny</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(27, "Wrocław Główny"), </v>
-      </c>
-      <c r="I28" t="str">
+        <v>17</v>
+      </c>
+      <c r="T28" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(26, 27, </v>
-      </c>
-      <c r="J28" t="str">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="U28" s="4">
         <f t="shared" si="6"/>
-        <v>26,5</v>
-      </c>
-      <c r="K28" t="str">
+        <v>0.26180555555555557</v>
+      </c>
+      <c r="V28" t="str">
+        <f>_xlfn.CONCAT("(1, ",A28,", ",A28,", ")</f>
+        <v xml:space="preserve">(1, 27, 27, </v>
+      </c>
+      <c r="W28" t="str">
         <f t="shared" si="7"/>
-        <v>26.5</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(26, 27, 26.5), </v>
-      </c>
-      <c r="M28">
-        <v>372</v>
-      </c>
-      <c r="N28">
-        <v>377</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 27, 27, </v>
-      </c>
-      <c r="P28" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 27, 27, 372, 377), </v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2075,49 +2930,80 @@
         <v>527.29999999999995</v>
       </c>
       <c r="D29" s="2">
+        <f t="shared" si="8"/>
+        <v>26.399999999999977</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G29" t="str">
+        <f>_xlfn.CONCAT("(",A29,", ",$I$2,B29)</f>
+        <v>(28, "Oborniki Śląskie</v>
+      </c>
+      <c r="H29" t="str">
+        <f>_xlfn.CONCAT(G29,$I$2,"), ")</f>
+        <v xml:space="preserve">(28, "Oborniki Śląskie"), </v>
+      </c>
+      <c r="J29" t="str">
+        <f>_xlfn.CONCAT("(",A28,", ",A29,", ")</f>
+        <v xml:space="preserve">(27, 28, </v>
+      </c>
+      <c r="K29" t="str">
+        <f>TEXT(D29,"##0,0")</f>
+        <v>26,4</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="9"/>
+        <v>26.4</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(27, 28, 26.4), </v>
+      </c>
+      <c r="N29">
+        <v>392</v>
+      </c>
+      <c r="O29">
+        <v>393</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="4"/>
-        <v>26.399999999999977</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>(28, "Oborniki Śląskie</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(28, "Oborniki Śląskie"), </v>
-      </c>
-      <c r="I29" t="str">
+        <v>33</v>
+      </c>
+      <c r="T29" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(27, 28, </v>
-      </c>
-      <c r="J29" t="str">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="U29" s="4">
         <f t="shared" si="6"/>
-        <v>26,4</v>
-      </c>
-      <c r="K29" t="str">
+        <v>0.27291666666666664</v>
+      </c>
+      <c r="V29" t="str">
+        <f>_xlfn.CONCAT("(1, ",A29,", ",A29,", ")</f>
+        <v xml:space="preserve">(1, 28, 28, </v>
+      </c>
+      <c r="W29" t="str">
         <f t="shared" si="7"/>
-        <v>26.4</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(27, 28, 26.4), </v>
-      </c>
-      <c r="M29">
-        <v>392</v>
-      </c>
-      <c r="N29">
-        <v>393</v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 28, 28, </v>
-      </c>
-      <c r="P29" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 28, 28, 392, 393), </v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2128,49 +3014,80 @@
         <v>548</v>
       </c>
       <c r="D30" s="2">
+        <f t="shared" si="8"/>
+        <v>20.700000000000045</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G30" t="str">
+        <f>_xlfn.CONCAT("(",A30,", ",$I$2,B30)</f>
+        <v>(29, "Żmigród</v>
+      </c>
+      <c r="H30" t="str">
+        <f>_xlfn.CONCAT(G30,$I$2,"), ")</f>
+        <v xml:space="preserve">(29, "Żmigród"), </v>
+      </c>
+      <c r="J30" t="str">
+        <f>_xlfn.CONCAT("(",A29,", ",A30,", ")</f>
+        <v xml:space="preserve">(28, 29, </v>
+      </c>
+      <c r="K30" t="str">
+        <f>TEXT(D30,"##0,0")</f>
+        <v>20,7</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="9"/>
+        <v>20.7</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(28, 29, 20.7), </v>
+      </c>
+      <c r="N30">
+        <v>403</v>
+      </c>
+      <c r="O30">
+        <v>404</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="4"/>
-        <v>20.700000000000045</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>(29, "Żmigród</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(29, "Żmigród"), </v>
-      </c>
-      <c r="I30" t="str">
+        <v>44</v>
+      </c>
+      <c r="T30" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(28, 29, </v>
-      </c>
-      <c r="J30" t="str">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="U30" s="4">
         <f t="shared" si="6"/>
-        <v>20,7</v>
-      </c>
-      <c r="K30" t="str">
+        <v>0.28055555555555556</v>
+      </c>
+      <c r="V30" t="str">
+        <f>_xlfn.CONCAT("(1, ",A30,", ",A30,", ")</f>
+        <v xml:space="preserve">(1, 29, 29, </v>
+      </c>
+      <c r="W30" t="str">
         <f t="shared" si="7"/>
-        <v>20.7</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(28, 29, 20.7), </v>
-      </c>
-      <c r="M30">
-        <v>403</v>
-      </c>
-      <c r="N30">
-        <v>404</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 29, 29, </v>
-      </c>
-      <c r="P30" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 29, 29, 403, 404), </v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2181,49 +3098,80 @@
         <v>564</v>
       </c>
       <c r="D31" s="2">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G31" t="str">
+        <f>_xlfn.CONCAT("(",A31,", ",$I$2,B31)</f>
+        <v>(30, "Rawicz</v>
+      </c>
+      <c r="H31" t="str">
+        <f>_xlfn.CONCAT(G31,$I$2,"), ")</f>
+        <v xml:space="preserve">(30, "Rawicz"), </v>
+      </c>
+      <c r="J31" t="str">
+        <f>_xlfn.CONCAT("(",A30,", ",A31,", ")</f>
+        <v xml:space="preserve">(29, 30, </v>
+      </c>
+      <c r="K31" t="str">
+        <f>TEXT(D31,"##0,0")</f>
+        <v>16,0</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="9"/>
+        <v>16.0</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(29, 30, 16.0), </v>
+      </c>
+      <c r="N31">
+        <v>413</v>
+      </c>
+      <c r="O31">
+        <v>414</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>(30, "Rawicz</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(30, "Rawicz"), </v>
-      </c>
-      <c r="I31" t="str">
+        <v>54</v>
+      </c>
+      <c r="T31" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(29, 30, </v>
-      </c>
-      <c r="J31" t="str">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="U31" s="4">
         <f t="shared" si="6"/>
-        <v>16,0</v>
-      </c>
-      <c r="K31" t="str">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="V31" t="str">
+        <f>_xlfn.CONCAT("(1, ",A31,", ",A31,", ")</f>
+        <v xml:space="preserve">(1, 30, 30, </v>
+      </c>
+      <c r="W31" t="str">
         <f t="shared" si="7"/>
-        <v>16.0</v>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(29, 30, 16.0), </v>
-      </c>
-      <c r="M31">
-        <v>413</v>
-      </c>
-      <c r="N31">
-        <v>414</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 30, 30, </v>
-      </c>
-      <c r="P31" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 30, 30, 413, 414), </v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2234,49 +3182,80 @@
         <v>596.70000000000005</v>
       </c>
       <c r="D32" s="2">
+        <f t="shared" si="8"/>
+        <v>32.700000000000045</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G32" t="str">
+        <f>_xlfn.CONCAT("(",A32,", ",$I$2,B32)</f>
+        <v>(31, "Leszno</v>
+      </c>
+      <c r="H32" t="str">
+        <f>_xlfn.CONCAT(G32,$I$2,"), ")</f>
+        <v xml:space="preserve">(31, "Leszno"), </v>
+      </c>
+      <c r="J32" t="str">
+        <f>_xlfn.CONCAT("(",A31,", ",A32,", ")</f>
+        <v xml:space="preserve">(30, 31, </v>
+      </c>
+      <c r="K32" t="str">
+        <f>TEXT(D32,"##0,0")</f>
+        <v>32,7</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="9"/>
+        <v>32.7</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(30, 31, 32.7), </v>
+      </c>
+      <c r="N32">
+        <v>429</v>
+      </c>
+      <c r="O32">
+        <v>430</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="4"/>
-        <v>32.700000000000045</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>(31, "Leszno</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(31, "Leszno"), </v>
-      </c>
-      <c r="I32" t="str">
+        <v>10</v>
+      </c>
+      <c r="T32" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(30, 31, </v>
-      </c>
-      <c r="J32" t="str">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="U32" s="4">
         <f t="shared" si="6"/>
-        <v>32,7</v>
-      </c>
-      <c r="K32" t="str">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="V32" t="str">
+        <f>_xlfn.CONCAT("(1, ",A32,", ",A32,", ")</f>
+        <v xml:space="preserve">(1, 31, 31, </v>
+      </c>
+      <c r="W32" t="str">
         <f t="shared" si="7"/>
-        <v>32.7</v>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(30, 31, 32.7), </v>
-      </c>
-      <c r="M32">
-        <v>429</v>
-      </c>
-      <c r="N32">
-        <v>430</v>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 31, 31, </v>
-      </c>
-      <c r="P32" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 31, 31, 429, 430), </v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2287,49 +3266,80 @@
         <v>623.6</v>
       </c>
       <c r="D33" s="2">
+        <f t="shared" si="8"/>
+        <v>26.899999999999977</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G33" t="str">
+        <f>_xlfn.CONCAT("(",A33,", ",$I$2,B33)</f>
+        <v>(32, "Kościan</v>
+      </c>
+      <c r="H33" t="str">
+        <f>_xlfn.CONCAT(G33,$I$2,"), ")</f>
+        <v xml:space="preserve">(32, "Kościan"), </v>
+      </c>
+      <c r="J33" t="str">
+        <f>_xlfn.CONCAT("(",A32,", ",A33,", ")</f>
+        <v xml:space="preserve">(31, 32, </v>
+      </c>
+      <c r="K33" t="str">
+        <f>TEXT(D33,"##0,0")</f>
+        <v>26,9</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="9"/>
+        <v>26.9</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(31, 32, 26.9), </v>
+      </c>
+      <c r="N33">
+        <v>443</v>
+      </c>
+      <c r="O33">
+        <v>444</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="4"/>
-        <v>26.899999999999977</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>(32, "Kościan</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(32, "Kościan"), </v>
-      </c>
-      <c r="I33" t="str">
+        <v>24</v>
+      </c>
+      <c r="T33" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(31, 32, </v>
-      </c>
-      <c r="J33" t="str">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="U33" s="4">
         <f t="shared" si="6"/>
-        <v>26,9</v>
-      </c>
-      <c r="K33" t="str">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="V33" t="str">
+        <f>_xlfn.CONCAT("(1, ",A33,", ",A33,", ")</f>
+        <v xml:space="preserve">(1, 32, 32, </v>
+      </c>
+      <c r="W33" t="str">
         <f t="shared" si="7"/>
-        <v>26.9</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(31, 32, 26.9), </v>
-      </c>
-      <c r="M33">
-        <v>443</v>
-      </c>
-      <c r="N33">
-        <v>444</v>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 32, 32, </v>
-      </c>
-      <c r="P33" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 32, 32, 443, 444), </v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2340,49 +3350,80 @@
         <v>665.4</v>
       </c>
       <c r="D34" s="2">
+        <f t="shared" si="8"/>
+        <v>41.799999999999955</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">StationID = 33 OR </v>
+      </c>
+      <c r="G34" t="str">
+        <f>_xlfn.CONCAT("(",A34,", ",$I$2,B34)</f>
+        <v>(33, "Poznań Główny</v>
+      </c>
+      <c r="H34" t="str">
+        <f>_xlfn.CONCAT(G34,$I$2,"), ")</f>
+        <v xml:space="preserve">(33, "Poznań Główny"), </v>
+      </c>
+      <c r="J34" t="str">
+        <f>_xlfn.CONCAT("(",A33,", ",A34,", ")</f>
+        <v xml:space="preserve">(32, 33, </v>
+      </c>
+      <c r="K34" t="str">
+        <f>TEXT(D34,"##0,0")</f>
+        <v>41,8</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="9"/>
+        <v>41.8</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(32, 33, 41.8), </v>
+      </c>
+      <c r="N34">
+        <v>466</v>
+      </c>
+      <c r="O34">
+        <v>470</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="S34">
         <f t="shared" si="4"/>
-        <v>41.799999999999955</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>(33, "Poznań Główny</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(33, "Poznań Główny"), </v>
-      </c>
-      <c r="I34" t="str">
+        <v>50</v>
+      </c>
+      <c r="T34" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(32, 33, </v>
-      </c>
-      <c r="J34" t="str">
+        <v>0.32361111111111113</v>
+      </c>
+      <c r="U34" s="4">
         <f t="shared" si="6"/>
-        <v>41,8</v>
-      </c>
-      <c r="K34" t="str">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="V34" t="str">
+        <f>_xlfn.CONCAT("(1, ",A34,", ",A34,", ")</f>
+        <v xml:space="preserve">(1, 33, 33, </v>
+      </c>
+      <c r="W34" t="str">
         <f t="shared" si="7"/>
-        <v>41.8</v>
-      </c>
-      <c r="L34" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(32, 33, 41.8), </v>
-      </c>
-      <c r="M34">
-        <v>466</v>
-      </c>
-      <c r="N34">
-        <v>470</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 33, 33, </v>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 33, 33, 466, 470), </v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2393,49 +3434,80 @@
         <v>694.8</v>
       </c>
       <c r="D35" s="2">
+        <f t="shared" si="8"/>
+        <v>29.399999999999977</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G35" t="str">
+        <f>_xlfn.CONCAT("(",A35,", ",$I$2,B35)</f>
+        <v>(34, "Oborniki Wielkopolskie Miasto</v>
+      </c>
+      <c r="H35" t="str">
+        <f>_xlfn.CONCAT(G35,$I$2,"), ")</f>
+        <v xml:space="preserve">(34, "Oborniki Wielkopolskie Miasto"), </v>
+      </c>
+      <c r="J35" t="str">
+        <f>_xlfn.CONCAT("(",A34,", ",A35,", ")</f>
+        <v xml:space="preserve">(33, 34, </v>
+      </c>
+      <c r="K35" t="str">
+        <f>TEXT(D35,"##0,0")</f>
+        <v>29,4</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="9"/>
+        <v>29.4</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(33, 34, 29.4), </v>
+      </c>
+      <c r="N35">
+        <v>502</v>
+      </c>
+      <c r="O35">
+        <v>503</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="S35">
         <f t="shared" si="4"/>
-        <v>29.399999999999977</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>(34, "Oborniki Wielkopolskie Miasto</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(34, "Oborniki Wielkopolskie Miasto"), </v>
-      </c>
-      <c r="I35" t="str">
+        <v>23</v>
+      </c>
+      <c r="T35" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(33, 34, </v>
-      </c>
-      <c r="J35" t="str">
+        <v>0.34861111111111109</v>
+      </c>
+      <c r="U35" s="4">
         <f t="shared" si="6"/>
-        <v>29,4</v>
-      </c>
-      <c r="K35" t="str">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="V35" t="str">
+        <f>_xlfn.CONCAT("(1, ",A35,", ",A35,", ")</f>
+        <v xml:space="preserve">(1, 34, 34, </v>
+      </c>
+      <c r="W35" t="str">
         <f t="shared" si="7"/>
-        <v>29.4</v>
-      </c>
-      <c r="L35" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(33, 34, 29.4), </v>
-      </c>
-      <c r="M35">
-        <v>502</v>
-      </c>
-      <c r="N35">
-        <v>503</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 34, 34, </v>
-      </c>
-      <c r="P35" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 34, 34, 502, 503), </v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2446,49 +3518,80 @@
         <v>711</v>
       </c>
       <c r="D36" s="2">
+        <f t="shared" si="8"/>
+        <v>16.200000000000045</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G36" t="str">
+        <f>_xlfn.CONCAT("(",A36,", ",$I$2,B36)</f>
+        <v>(35, "Rogoźno Wielkopolskie</v>
+      </c>
+      <c r="H36" t="str">
+        <f>_xlfn.CONCAT(G36,$I$2,"), ")</f>
+        <v xml:space="preserve">(35, "Rogoźno Wielkopolskie"), </v>
+      </c>
+      <c r="J36" t="str">
+        <f>_xlfn.CONCAT("(",A35,", ",A36,", ")</f>
+        <v xml:space="preserve">(34, 35, </v>
+      </c>
+      <c r="K36" t="str">
+        <f>TEXT(D36,"##0,0")</f>
+        <v>16,2</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="9"/>
+        <v>16.2</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(34, 35, 16.2), </v>
+      </c>
+      <c r="N36">
+        <v>513</v>
+      </c>
+      <c r="O36">
+        <v>514</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="4"/>
-        <v>16.200000000000045</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>(35, "Rogoźno Wielkopolskie</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(35, "Rogoźno Wielkopolskie"), </v>
-      </c>
-      <c r="I36" t="str">
+        <v>34</v>
+      </c>
+      <c r="T36" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(34, 35, </v>
-      </c>
-      <c r="J36" t="str">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="U36" s="4">
         <f t="shared" si="6"/>
-        <v>16,2</v>
-      </c>
-      <c r="K36" t="str">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="V36" t="str">
+        <f>_xlfn.CONCAT("(1, ",A36,", ",A36,", ")</f>
+        <v xml:space="preserve">(1, 35, 35, </v>
+      </c>
+      <c r="W36" t="str">
         <f t="shared" si="7"/>
-        <v>16.2</v>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(34, 35, 16.2), </v>
-      </c>
-      <c r="M36">
-        <v>513</v>
-      </c>
-      <c r="N36">
-        <v>514</v>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 35, 35, </v>
-      </c>
-      <c r="P36" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 35, 35, 513, 514), </v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2499,49 +3602,80 @@
         <v>738.9</v>
       </c>
       <c r="D37" s="2">
+        <f t="shared" si="8"/>
+        <v>27.899999999999977</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G37" t="str">
+        <f>_xlfn.CONCAT("(",A37,", ",$I$2,B37)</f>
+        <v>(36, "Chodzież</v>
+      </c>
+      <c r="H37" t="str">
+        <f>_xlfn.CONCAT(G37,$I$2,"), ")</f>
+        <v xml:space="preserve">(36, "Chodzież"), </v>
+      </c>
+      <c r="J37" t="str">
+        <f>_xlfn.CONCAT("(",A36,", ",A37,", ")</f>
+        <v xml:space="preserve">(35, 36, </v>
+      </c>
+      <c r="K37" t="str">
+        <f>TEXT(D37,"##0,0")</f>
+        <v>27,9</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="9"/>
+        <v>27.9</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(35, 36, 27.9), </v>
+      </c>
+      <c r="N37">
+        <v>530</v>
+      </c>
+      <c r="O37">
+        <v>531</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="S37">
         <f t="shared" si="4"/>
-        <v>27.899999999999977</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>(36, "Chodzież</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(36, "Chodzież"), </v>
-      </c>
-      <c r="I37" t="str">
+        <v>51</v>
+      </c>
+      <c r="T37" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(35, 36, </v>
-      </c>
-      <c r="J37" t="str">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="U37" s="4">
         <f t="shared" si="6"/>
-        <v>27,9</v>
-      </c>
-      <c r="K37" t="str">
+        <v>0.36875000000000002</v>
+      </c>
+      <c r="V37" t="str">
+        <f>_xlfn.CONCAT("(1, ",A37,", ",A37,", ")</f>
+        <v xml:space="preserve">(1, 36, 36, </v>
+      </c>
+      <c r="W37" t="str">
         <f t="shared" si="7"/>
-        <v>27.9</v>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(35, 36, 27.9), </v>
-      </c>
-      <c r="M37">
-        <v>530</v>
-      </c>
-      <c r="N37">
-        <v>531</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 36, 36, </v>
-      </c>
-      <c r="P37" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 36, 36, 530, 531), </v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2552,49 +3686,80 @@
         <v>761</v>
       </c>
       <c r="D38" s="2">
+        <f t="shared" si="8"/>
+        <v>22.100000000000023</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G38" t="str">
+        <f>_xlfn.CONCAT("(",A38,", ",$I$2,B38)</f>
+        <v>(37, "Piła Główna</v>
+      </c>
+      <c r="H38" t="str">
+        <f>_xlfn.CONCAT(G38,$I$2,"), ")</f>
+        <v xml:space="preserve">(37, "Piła Główna"), </v>
+      </c>
+      <c r="J38" t="str">
+        <f>_xlfn.CONCAT("(",A37,", ",A38,", ")</f>
+        <v xml:space="preserve">(36, 37, </v>
+      </c>
+      <c r="K38" t="str">
+        <f>TEXT(D38,"##0,0")</f>
+        <v>22,1</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="9"/>
+        <v>22.1</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(36, 37, 22.1), </v>
+      </c>
+      <c r="N38">
+        <v>546</v>
+      </c>
+      <c r="O38">
+        <v>547</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="S38">
         <f t="shared" si="4"/>
-        <v>22.100000000000023</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>(37, "Piła Główna</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(37, "Piła Główna"), </v>
-      </c>
-      <c r="I38" t="str">
+        <v>7</v>
+      </c>
+      <c r="T38" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(36, 37, </v>
-      </c>
-      <c r="J38" t="str">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="U38" s="4">
         <f t="shared" si="6"/>
-        <v>22,1</v>
-      </c>
-      <c r="K38" t="str">
+        <v>0.37986111111111109</v>
+      </c>
+      <c r="V38" t="str">
+        <f>_xlfn.CONCAT("(1, ",A38,", ",A38,", ")</f>
+        <v xml:space="preserve">(1, 37, 37, </v>
+      </c>
+      <c r="W38" t="str">
         <f t="shared" si="7"/>
-        <v>22.1</v>
-      </c>
-      <c r="L38" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(36, 37, 22.1), </v>
-      </c>
-      <c r="M38">
-        <v>546</v>
-      </c>
-      <c r="N38">
-        <v>547</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 37, 37, </v>
-      </c>
-      <c r="P38" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 37, 37, 546, 547), </v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2605,49 +3770,80 @@
         <v>795.8</v>
       </c>
       <c r="D39" s="2">
+        <f t="shared" si="8"/>
+        <v>34.799999999999955</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G39" t="str">
+        <f>_xlfn.CONCAT("(",A39,", ",$I$2,B39)</f>
+        <v>(38, "Jastrowie</v>
+      </c>
+      <c r="H39" t="str">
+        <f>_xlfn.CONCAT(G39,$I$2,"), ")</f>
+        <v xml:space="preserve">(38, "Jastrowie"), </v>
+      </c>
+      <c r="J39" t="str">
+        <f>_xlfn.CONCAT("(",A38,", ",A39,", ")</f>
+        <v xml:space="preserve">(37, 38, </v>
+      </c>
+      <c r="K39" t="str">
+        <f>TEXT(D39,"##0,0")</f>
+        <v>34,8</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="9"/>
+        <v>34.8</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(37, 38, 34.8), </v>
+      </c>
+      <c r="N39">
+        <v>572</v>
+      </c>
+      <c r="O39">
+        <v>573</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="S39">
         <f t="shared" si="4"/>
-        <v>34.799999999999955</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>(38, "Jastrowie</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(38, "Jastrowie"), </v>
-      </c>
-      <c r="I39" t="str">
+        <v>33</v>
+      </c>
+      <c r="T39" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(37, 38, </v>
-      </c>
-      <c r="J39" t="str">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="U39" s="4">
         <f t="shared" si="6"/>
-        <v>34,8</v>
-      </c>
-      <c r="K39" t="str">
+        <v>0.39791666666666664</v>
+      </c>
+      <c r="V39" t="str">
+        <f>_xlfn.CONCAT("(1, ",A39,", ",A39,", ")</f>
+        <v xml:space="preserve">(1, 38, 38, </v>
+      </c>
+      <c r="W39" t="str">
         <f t="shared" si="7"/>
-        <v>34.8</v>
-      </c>
-      <c r="L39" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(37, 38, 34.8), </v>
-      </c>
-      <c r="M39">
-        <v>572</v>
-      </c>
-      <c r="N39">
-        <v>573</v>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 38, 38, </v>
-      </c>
-      <c r="P39" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 38, 38, 572, 573), </v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2658,49 +3854,80 @@
         <v>831.7</v>
       </c>
       <c r="D40" s="2">
+        <f t="shared" si="8"/>
+        <v>35.900000000000091</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G40" t="str">
+        <f>_xlfn.CONCAT("(",A40,", ",$I$2,B40)</f>
+        <v>(39, "Szczecinek</v>
+      </c>
+      <c r="H40" t="str">
+        <f>_xlfn.CONCAT(G40,$I$2,"), ")</f>
+        <v xml:space="preserve">(39, "Szczecinek"), </v>
+      </c>
+      <c r="J40" t="str">
+        <f>_xlfn.CONCAT("(",A39,", ",A40,", ")</f>
+        <v xml:space="preserve">(38, 39, </v>
+      </c>
+      <c r="K40" t="str">
+        <f>TEXT(D40,"##0,0")</f>
+        <v>35,9</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="9"/>
+        <v>35.9</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(38, 39, 35.9), </v>
+      </c>
+      <c r="N40">
+        <v>601</v>
+      </c>
+      <c r="O40">
+        <v>605</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="S40">
         <f t="shared" si="4"/>
-        <v>35.900000000000091</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>(39, "Szczecinek</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(39, "Szczecinek"), </v>
-      </c>
-      <c r="I40" t="str">
+        <v>5</v>
+      </c>
+      <c r="T40" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(38, 39, </v>
-      </c>
-      <c r="J40" t="str">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="U40" s="4">
         <f t="shared" si="6"/>
-        <v>35,9</v>
-      </c>
-      <c r="K40" t="str">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="V40" t="str">
+        <f>_xlfn.CONCAT("(1, ",A40,", ",A40,", ")</f>
+        <v xml:space="preserve">(1, 39, 39, </v>
+      </c>
+      <c r="W40" t="str">
         <f t="shared" si="7"/>
-        <v>35.9</v>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(38, 39, 35.9), </v>
-      </c>
-      <c r="M40">
-        <v>601</v>
-      </c>
-      <c r="N40">
-        <v>605</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 39, 39, </v>
-      </c>
-      <c r="P40" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 39, 39, 601, 605), </v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2711,49 +3938,80 @@
         <v>895.2</v>
       </c>
       <c r="D41" s="2">
+        <f t="shared" si="8"/>
+        <v>63.5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G41" t="str">
+        <f>_xlfn.CONCAT("(",A41,", ",$I$2,B41)</f>
+        <v>(40, "Białograd</v>
+      </c>
+      <c r="H41" t="str">
+        <f>_xlfn.CONCAT(G41,$I$2,"), ")</f>
+        <v xml:space="preserve">(40, "Białograd"), </v>
+      </c>
+      <c r="J41" t="str">
+        <f>_xlfn.CONCAT("(",A40,", ",A41,", ")</f>
+        <v xml:space="preserve">(39, 40, </v>
+      </c>
+      <c r="K41" t="str">
+        <f>TEXT(D41,"##0,0")</f>
+        <v>63,5</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="9"/>
+        <v>63.5</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(39, 40, 63.5), </v>
+      </c>
+      <c r="N41">
+        <v>664</v>
+      </c>
+      <c r="O41">
+        <v>667</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="S41">
         <f t="shared" si="4"/>
-        <v>63.5</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>(40, "Białograd</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(40, "Białograd"), </v>
-      </c>
-      <c r="I41" t="str">
+        <v>7</v>
+      </c>
+      <c r="T41" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(39, 40, </v>
-      </c>
-      <c r="J41" t="str">
+        <v>0.46111111111111114</v>
+      </c>
+      <c r="U41" s="4">
         <f t="shared" si="6"/>
-        <v>63,5</v>
-      </c>
-      <c r="K41" t="str">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="V41" t="str">
+        <f>_xlfn.CONCAT("(1, ",A41,", ",A41,", ")</f>
+        <v xml:space="preserve">(1, 40, 40, </v>
+      </c>
+      <c r="W41" t="str">
         <f t="shared" si="7"/>
-        <v>63.5</v>
-      </c>
-      <c r="L41" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(39, 40, 63.5), </v>
-      </c>
-      <c r="M41">
-        <v>664</v>
-      </c>
-      <c r="N41">
-        <v>667</v>
-      </c>
-      <c r="O41" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 40, 40, </v>
-      </c>
-      <c r="P41" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 40, 40, 664, 667), </v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2764,49 +4022,80 @@
         <v>919.6</v>
       </c>
       <c r="D42" s="2">
+        <f t="shared" si="8"/>
+        <v>24.399999999999977</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G42" t="str">
+        <f>_xlfn.CONCAT("(",A42,", ",$I$2,B42)</f>
+        <v>(41, "Koszalin</v>
+      </c>
+      <c r="H42" t="str">
+        <f>_xlfn.CONCAT(G42,$I$2,"), ")</f>
+        <v xml:space="preserve">(41, "Koszalin"), </v>
+      </c>
+      <c r="J42" t="str">
+        <f>_xlfn.CONCAT("(",A41,", ",A42,", ")</f>
+        <v xml:space="preserve">(40, 41, </v>
+      </c>
+      <c r="K42" t="str">
+        <f>TEXT(D42,"##0,0")</f>
+        <v>24,4</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="9"/>
+        <v>24.4</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(40, 41, 24.4), </v>
+      </c>
+      <c r="N42">
+        <v>681</v>
+      </c>
+      <c r="O42">
+        <v>683</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="S42">
         <f t="shared" si="4"/>
-        <v>24.399999999999977</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>(41, "Koszalin</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(41, "Koszalin"), </v>
-      </c>
-      <c r="I42" t="str">
+        <v>23</v>
+      </c>
+      <c r="T42" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(40, 41, </v>
-      </c>
-      <c r="J42" t="str">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="U42" s="4">
         <f t="shared" si="6"/>
-        <v>24,4</v>
-      </c>
-      <c r="K42" t="str">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="V42" t="str">
+        <f>_xlfn.CONCAT("(1, ",A42,", ",A42,", ")</f>
+        <v xml:space="preserve">(1, 41, 41, </v>
+      </c>
+      <c r="W42" t="str">
         <f t="shared" si="7"/>
-        <v>24.4</v>
-      </c>
-      <c r="L42" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(40, 41, 24.4), </v>
-      </c>
-      <c r="M42">
-        <v>681</v>
-      </c>
-      <c r="N42">
-        <v>683</v>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 41, 41, </v>
-      </c>
-      <c r="P42" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 41, 41, 681, 683), </v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2817,49 +4106,80 @@
         <v>959.6</v>
       </c>
       <c r="D43" s="2">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G43" t="str">
+        <f>_xlfn.CONCAT("(",A43,", ",$I$2,B43)</f>
+        <v>(42, "Sławno</v>
+      </c>
+      <c r="H43" t="str">
+        <f>_xlfn.CONCAT(G43,$I$2,"), ")</f>
+        <v xml:space="preserve">(42, "Sławno"), </v>
+      </c>
+      <c r="J43" t="str">
+        <f>_xlfn.CONCAT("(",A42,", ",A43,", ")</f>
+        <v xml:space="preserve">(41, 42, </v>
+      </c>
+      <c r="K43" t="str">
+        <f>TEXT(D43,"##0,0")</f>
+        <v>40,0</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="9"/>
+        <v>40.0</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(41, 42, 40.0), </v>
+      </c>
+      <c r="N43">
+        <v>712</v>
+      </c>
+      <c r="O43">
+        <v>713</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="S43">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>(42, "Sławno</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(42, "Sławno"), </v>
-      </c>
-      <c r="I43" t="str">
+        <v>53</v>
+      </c>
+      <c r="T43" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(41, 42, </v>
-      </c>
-      <c r="J43" t="str">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="U43" s="4">
         <f t="shared" si="6"/>
-        <v>40,0</v>
-      </c>
-      <c r="K43" t="str">
+        <v>0.49513888888888891</v>
+      </c>
+      <c r="V43" t="str">
+        <f>_xlfn.CONCAT("(1, ",A43,", ",A43,", ")</f>
+        <v xml:space="preserve">(1, 42, 42, </v>
+      </c>
+      <c r="W43" t="str">
         <f t="shared" si="7"/>
-        <v>40.0</v>
-      </c>
-      <c r="L43" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(41, 42, 40.0), </v>
-      </c>
-      <c r="M43">
-        <v>712</v>
-      </c>
-      <c r="N43">
-        <v>713</v>
-      </c>
-      <c r="O43" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 42, 42, </v>
-      </c>
-      <c r="P43" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 42, 42, 712, 713), </v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2870,49 +4190,80 @@
         <v>986.7</v>
       </c>
       <c r="D44" s="2">
+        <f t="shared" si="8"/>
+        <v>27.100000000000023</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G44" t="str">
+        <f>_xlfn.CONCAT("(",A44,", ",$I$2,B44)</f>
+        <v>(43, "Słupsk</v>
+      </c>
+      <c r="H44" t="str">
+        <f>_xlfn.CONCAT(G44,$I$2,"), ")</f>
+        <v xml:space="preserve">(43, "Słupsk"), </v>
+      </c>
+      <c r="J44" t="str">
+        <f>_xlfn.CONCAT("(",A43,", ",A44,", ")</f>
+        <v xml:space="preserve">(42, 43, </v>
+      </c>
+      <c r="K44" t="str">
+        <f>TEXT(D44,"##0,0")</f>
+        <v>27,1</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="9"/>
+        <v>27.1</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">(42, 43, 27.1), </v>
+      </c>
+      <c r="N44">
+        <v>732</v>
+      </c>
+      <c r="O44">
+        <v>734</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="S44">
         <f t="shared" si="4"/>
-        <v>27.100000000000023</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>(43, "Słupsk</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">(43, "Słupsk"), </v>
-      </c>
-      <c r="I44" t="str">
+        <v>14</v>
+      </c>
+      <c r="T44" s="4">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">(42, 43, </v>
-      </c>
-      <c r="J44" t="str">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="U44" s="4">
         <f t="shared" si="6"/>
-        <v>27,1</v>
-      </c>
-      <c r="K44" t="str">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="V44" t="str">
+        <f>_xlfn.CONCAT("(1, ",A44,", ",A44,", ")</f>
+        <v xml:space="preserve">(1, 43, 43, </v>
+      </c>
+      <c r="W44" t="str">
         <f t="shared" si="7"/>
-        <v>27.1</v>
-      </c>
-      <c r="L44" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">(42, 43, 27.1), </v>
-      </c>
-      <c r="M44">
-        <v>732</v>
-      </c>
-      <c r="N44">
-        <v>734</v>
-      </c>
-      <c r="O44" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">(1, 43, 43, </v>
-      </c>
-      <c r="P44" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">(1, 43, 43, 732, 734), </v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2923,45 +4274,76 @@
         <v>1003.8</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17.099999999999909</v>
       </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">StationID = 44 OR </v>
+      </c>
+      <c r="G45" t="str">
+        <f>_xlfn.CONCAT("(",A45,", ",$I$2,B45)</f>
         <v>(44, "Ustka</v>
       </c>
-      <c r="F45" t="str">
-        <f t="shared" si="1"/>
+      <c r="H45" t="str">
+        <f>_xlfn.CONCAT(G45,$I$2,"), ")</f>
         <v xml:space="preserve">(44, "Ustka"), </v>
       </c>
-      <c r="I45" t="str">
-        <f t="shared" si="5"/>
+      <c r="J45" t="str">
+        <f>_xlfn.CONCAT("(",A44,", ",A45,", ")</f>
         <v xml:space="preserve">(43, 44, </v>
       </c>
-      <c r="J45" t="str">
-        <f t="shared" si="6"/>
+      <c r="K45" t="str">
+        <f>TEXT(D45,"##0,0")</f>
         <v>17,1</v>
       </c>
-      <c r="K45" t="str">
-        <f t="shared" si="7"/>
+      <c r="L45" t="str">
+        <f t="shared" si="9"/>
         <v>17.1</v>
       </c>
-      <c r="L45" t="str">
-        <f t="shared" si="8"/>
+      <c r="M45" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">(43, 44, 17.1), </v>
-      </c>
-      <c r="M45">
-        <v>748</v>
       </c>
       <c r="N45">
         <v>748</v>
       </c>
-      <c r="O45" t="str">
-        <f t="shared" si="2"/>
+      <c r="O45">
+        <v>748</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="T45" s="4">
+        <f t="shared" si="5"/>
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="U45" s="4">
+        <f t="shared" si="6"/>
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="V45" t="str">
+        <f>_xlfn.CONCAT("(1, ",A45,", ",A45,", ")</f>
         <v xml:space="preserve">(1, 44, 44, </v>
       </c>
-      <c r="P45" t="str">
-        <f t="shared" si="3"/>
+      <c r="W45" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">(1, 44, 44, 748, 748), </v>
       </c>
     </row>
@@ -2973,19 +4355,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B41CC0C-81B4-476A-A9A2-C742353846F1}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3005,7 +4387,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>44</v>
       </c>
@@ -3038,7 +4420,7 @@
         <v xml:space="preserve">(2, 1, 44, 0, 0), </v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>43</v>
       </c>
@@ -3071,7 +4453,7 @@
         <v xml:space="preserve">(2, 2, 43, 16, 14), </v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>42</v>
       </c>
@@ -3107,7 +4489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>41</v>
       </c>
@@ -3143,7 +4525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>40</v>
       </c>
@@ -3179,7 +4561,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>39</v>
       </c>
@@ -3212,7 +4594,7 @@
         <v xml:space="preserve">(2, 6, 39, 147, 143), </v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>38</v>
       </c>
@@ -3245,7 +4627,7 @@
         <v xml:space="preserve">(2, 7, 38, 176, 175), </v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>37</v>
       </c>
@@ -3278,7 +4660,7 @@
         <v xml:space="preserve">(2, 8, 37, 202, 201), </v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>36</v>
       </c>
@@ -3311,7 +4693,7 @@
         <v xml:space="preserve">(2, 9, 36, 218, 217), </v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>35</v>
       </c>
@@ -3344,7 +4726,7 @@
         <v xml:space="preserve">(2, 10, 35, 235, 234), </v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>34</v>
       </c>
@@ -3377,7 +4759,7 @@
         <v xml:space="preserve">(2, 11, 34, 246, 245), </v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>33</v>
       </c>
@@ -3410,7 +4792,7 @@
         <v xml:space="preserve">(2, 12, 33, 282, 278), </v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>32</v>
       </c>
@@ -3443,7 +4825,7 @@
         <v xml:space="preserve">(2, 13, 32, 305, 304), </v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>31</v>
       </c>
@@ -3476,7 +4858,7 @@
         <v xml:space="preserve">(2, 14, 31, 319, 318), </v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>30</v>
       </c>
@@ -3509,7 +4891,7 @@
         <v xml:space="preserve">(2, 15, 30, 335, 334), </v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>29</v>
       </c>
@@ -3542,7 +4924,7 @@
         <v xml:space="preserve">(2, 16, 29, 345, 344), </v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>28</v>
       </c>
@@ -3575,7 +4957,7 @@
         <v xml:space="preserve">(2, 17, 28, 356, 355), </v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>27</v>
       </c>
@@ -3608,7 +4990,7 @@
         <v xml:space="preserve">(2, 18, 27, 376, 371), </v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>26</v>
       </c>
@@ -3641,7 +5023,7 @@
         <v xml:space="preserve">(2, 19, 26, 394, 393), </v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>25</v>
       </c>
@@ -3674,7 +5056,7 @@
         <v xml:space="preserve">(2, 20, 25, 404, 403), </v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>24</v>
       </c>
@@ -3707,7 +5089,7 @@
         <v xml:space="preserve">(2, 21, 24, 425, 422), </v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3740,7 +5122,7 @@
         <v xml:space="preserve">(2, 22, 23, 446, 445), </v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3773,7 +5155,7 @@
         <v xml:space="preserve">(2, 23, 22, 485, 475), </v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>21</v>
       </c>
@@ -3806,7 +5188,7 @@
         <v xml:space="preserve">(2, 24, 21, 494, 492), </v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>20</v>
       </c>
@@ -3839,7 +5221,7 @@
         <v xml:space="preserve">(2, 25, 20, 510, 507), </v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>19</v>
       </c>
@@ -3872,7 +5254,7 @@
         <v xml:space="preserve">(2, 26, 19, 526, 523), </v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>18</v>
       </c>
@@ -3905,7 +5287,7 @@
         <v xml:space="preserve">(2, 27, 18, 543, 534), </v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>17</v>
       </c>
@@ -3938,7 +5320,7 @@
         <v xml:space="preserve">(2, 28, 17, 554, 552), </v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>16</v>
       </c>
@@ -3971,7 +5353,7 @@
         <v xml:space="preserve">(2, 29, 16, 563, 561), </v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>15</v>
       </c>
@@ -4004,7 +5386,7 @@
         <v xml:space="preserve">(2, 30, 15, 586, 580), </v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>14</v>
       </c>
@@ -4037,7 +5419,7 @@
         <v xml:space="preserve">(2, 31, 14, 594, 590), </v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>13</v>
       </c>
@@ -4070,7 +5452,7 @@
         <v xml:space="preserve">(2, 32, 13, 613, 611), </v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>12</v>
       </c>
@@ -4103,7 +5485,7 @@
         <v xml:space="preserve">(2, 33, 12, 621, 620), </v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>11</v>
       </c>
@@ -4136,7 +5518,7 @@
         <v xml:space="preserve">(2, 34, 11, 636, 634), </v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>10</v>
       </c>
@@ -4169,7 +5551,7 @@
         <v xml:space="preserve">(2, 35, 10, 654, 652), </v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>9</v>
       </c>
@@ -4202,7 +5584,7 @@
         <v xml:space="preserve">(2, 36, 9, 663, 661), </v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>8</v>
       </c>
@@ -4235,7 +5617,7 @@
         <v xml:space="preserve">(2, 37, 8, 670, 668), </v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>7</v>
       </c>
@@ -4268,7 +5650,7 @@
         <v xml:space="preserve">(2, 38, 7, 686, 683), </v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>6</v>
       </c>
@@ -4301,7 +5683,7 @@
         <v xml:space="preserve">(2, 39, 6, 697, 696), </v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>5</v>
       </c>
@@ -4334,7 +5716,7 @@
         <v xml:space="preserve">(2, 40, 5, 712, 711), </v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4</v>
       </c>
@@ -4367,7 +5749,7 @@
         <v xml:space="preserve">(2, 41, 4, 722, 721), </v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>3</v>
       </c>
@@ -4400,7 +5782,7 @@
         <v xml:space="preserve">(2, 42, 3, 732, 731), </v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2</v>
       </c>
@@ -4433,7 +5815,7 @@
         <v xml:space="preserve">(2, 43, 2, 746, 745), </v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1</v>
       </c>

--- a/System_Biletow/routes-and-distances.xlsx
+++ b/System_Biletow/routes-and-distances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\source\repos\System_Biletow\System_Biletow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BB5110-73C3-4E41-8B07-077873FE9A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FE5803-D0F1-4974-AF18-8C2C66220F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{BF7BFC58-7EBB-4F9A-8262-53262799B646}"/>
   </bookViews>
@@ -213,16 +213,16 @@
     <t>748-czas</t>
   </si>
   <si>
-    <t>UWAGA</t>
+    <t>czy wyświetlać</t>
   </si>
   <si>
-    <t>podane czasy nie zgadzają się z rozkładem PKP, bo łączny czas Przemyśl-Ustka jest nieznacznie inny niż Ustka-Przemyśl</t>
+    <t>arrivalTime</t>
   </si>
   <si>
-    <t>do korekty!</t>
+    <t>departureTime</t>
   </si>
   <si>
-    <t>czy wyświetlać</t>
+    <t>nowy string do sql</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -268,7 +268,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F50AE4B-394D-4808-B118-C9772416601B}">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,7 +644,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
         <v>49</v>
@@ -686,11 +686,11 @@
         <v xml:space="preserve">StationID = 1 OR </v>
       </c>
       <c r="G2" t="str">
-        <f>_xlfn.CONCAT("(",A2,", ",$I$2,B2)</f>
+        <f t="shared" ref="G2:G45" si="0">_xlfn.CONCAT("(",A2,", ",$I$2,B2)</f>
         <v>(1, "Przemyśl Główny</v>
       </c>
       <c r="H2" t="str">
-        <f>_xlfn.CONCAT(G2,$I$2,"), ")</f>
+        <f t="shared" ref="H2:H45" si="1">_xlfn.CONCAT(G2,$I$2,"), ")</f>
         <v xml:space="preserve">(1, "Przemyśl Główny"), </v>
       </c>
       <c r="I2" t="s">
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="str">
-        <f>_xlfn.CONCAT("(1, ",A2,", ",A2,", ")</f>
+        <f t="shared" ref="V2:V45" si="2">_xlfn.CONCAT("(1, ",A2,", ",A2,", ")</f>
         <v xml:space="preserve">(1, 1, 1, </v>
       </c>
       <c r="W2" t="str">
@@ -753,23 +753,23 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="str">
-        <f t="shared" ref="F3:F45" si="0">IF(E3,_xlfn.CONCAT("StationID = ",A3," OR ")," ")</f>
+        <f t="shared" ref="F3:F45" si="3">IF(E3,_xlfn.CONCAT("StationID = ",A3," OR ")," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <f>_xlfn.CONCAT("(",A3,", ",$I$2,B3)</f>
+        <f t="shared" si="0"/>
         <v>(2, "Przemyśl Zasanie</v>
       </c>
       <c r="H3" t="str">
-        <f>_xlfn.CONCAT(G3,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(2, "Przemyśl Zasanie"), </v>
       </c>
       <c r="J3" t="str">
-        <f>_xlfn.CONCAT("(",A2,", ",A3,", ")</f>
+        <f t="shared" ref="J3:J45" si="4">_xlfn.CONCAT("(",A2,", ",A3,", ")</f>
         <v xml:space="preserve">(1, 2, </v>
       </c>
       <c r="K3" t="str">
-        <f>TEXT(D3,"##0,0")</f>
+        <f t="shared" ref="K3:K45" si="5">TEXT(D3,"##0,0")</f>
         <v>1,6</v>
       </c>
       <c r="L3" t="str">
@@ -787,35 +787,35 @@
         <v>3</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P45" si="1">(N3-Q3)/60</f>
+        <f t="shared" ref="P3:P45" si="6">(N3-Q3)/60</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q45" si="2">MOD(N3, 60)</f>
+        <f t="shared" ref="Q3:Q45" si="7">MOD(N3, 60)</f>
         <v>2</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R45" si="3">(O3-S3)/60</f>
+        <f t="shared" ref="R3:R45" si="8">(O3-S3)/60</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S45" si="4">MOD(O3, 60)</f>
+        <f t="shared" ref="S3:S45" si="9">MOD(O3, 60)</f>
         <v>3</v>
       </c>
       <c r="T3" s="4">
-        <f t="shared" ref="T3:T45" si="5">TIME(P3,Q3,0)</f>
+        <f t="shared" ref="T3:T45" si="10">TIME(P3,Q3,0)</f>
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="U3" s="4">
-        <f t="shared" ref="U3:U45" si="6">TIME(R3,S3,0)</f>
+        <f t="shared" ref="U3:U45" si="11">TIME(R3,S3,0)</f>
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="V3" t="str">
-        <f>_xlfn.CONCAT("(1, ",A3,", ",A3,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 2, 2, </v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" ref="W3:W45" si="7">_xlfn.CONCAT(V3,N3,", ",O3,"), ")</f>
+        <f t="shared" ref="W3:W45" si="12">_xlfn.CONCAT(V3,N3,", ",O3,"), ")</f>
         <v xml:space="preserve">(1, 2, 2, 2, 3), </v>
       </c>
     </row>
@@ -830,38 +830,38 @@
         <v>21.2</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D45" si="8">C4-C3</f>
+        <f t="shared" ref="D4:D45" si="13">C4-C3</f>
         <v>19.599999999999998</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G4" t="str">
-        <f>_xlfn.CONCAT("(",A4,", ",$I$2,B4)</f>
+        <f t="shared" si="0"/>
         <v>(3, "Radymno</v>
       </c>
       <c r="H4" t="str">
-        <f>_xlfn.CONCAT(G4,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(3, "Radymno"), </v>
       </c>
       <c r="J4" t="str">
-        <f>_xlfn.CONCAT("(",A3,", ",A4,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(2, 3, </v>
       </c>
       <c r="K4" t="str">
-        <f>TEXT(D4,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>19,6</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L45" si="9">SUBSTITUTE(K4,",",".")</f>
+        <f t="shared" ref="L4:L45" si="14">SUBSTITUTE(K4,",",".")</f>
         <v>19.6</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M45" si="10">_xlfn.CONCAT(J4,L4,"), ")</f>
+        <f t="shared" ref="M4:M45" si="15">_xlfn.CONCAT(J4,L4,"), ")</f>
         <v xml:space="preserve">(2, 3, 19.6), </v>
       </c>
       <c r="N4">
@@ -871,35 +871,35 @@
         <v>17</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="R4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="T4" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="U4" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.1805555555555555E-2</v>
       </c>
       <c r="V4" t="str">
-        <f>_xlfn.CONCAT("(1, ",A4,", ",A4,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 3, 3, </v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 3, 3, 16, 17), </v>
       </c>
     </row>
@@ -914,38 +914,38 @@
         <v>35</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>13.8</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G5" t="str">
-        <f>_xlfn.CONCAT("(",A5,", ",$I$2,B5)</f>
+        <f t="shared" si="0"/>
         <v>(4, "Jarosław</v>
       </c>
       <c r="H5" t="str">
-        <f>_xlfn.CONCAT(G5,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(4, "Jarosław"), </v>
       </c>
       <c r="J5" t="str">
-        <f>_xlfn.CONCAT("(",A4,", ",A5,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(3, 4, </v>
       </c>
       <c r="K5" t="str">
-        <f>TEXT(D5,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>13,8</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>13.8</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(3, 4, 13.8), </v>
       </c>
       <c r="N5">
@@ -955,35 +955,35 @@
         <v>27</v>
       </c>
       <c r="P5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="R5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="T5" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.8055555555555554E-2</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="V5" t="str">
-        <f>_xlfn.CONCAT("(1, ",A5,", ",A5,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 4, 4, </v>
       </c>
       <c r="W5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 4, 4, 26, 27), </v>
       </c>
     </row>
@@ -998,38 +998,38 @@
         <v>49.9</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>14.899999999999999</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G6" t="str">
-        <f>_xlfn.CONCAT("(",A6,", ",$I$2,B6)</f>
+        <f t="shared" si="0"/>
         <v>(5, "Przeworsk</v>
       </c>
       <c r="H6" t="str">
-        <f>_xlfn.CONCAT(G6,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(5, "Przeworsk"), </v>
       </c>
       <c r="J6" t="str">
-        <f>_xlfn.CONCAT("(",A5,", ",A6,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(4, 5, </v>
       </c>
       <c r="K6" t="str">
-        <f>TEXT(D6,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>14,9</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>14.9</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(4, 5, 14.9), </v>
       </c>
       <c r="N6">
@@ -1039,35 +1039,35 @@
         <v>37</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="R6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="U6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.5694444444444443E-2</v>
       </c>
       <c r="V6" t="str">
-        <f>_xlfn.CONCAT("(1, ",A6,", ",A6,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 5, 5, </v>
       </c>
       <c r="W6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 5, 5, 36, 37), </v>
       </c>
     </row>
@@ -1082,38 +1082,38 @@
         <v>70.099999999999994</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>20.199999999999996</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G7" t="str">
-        <f>_xlfn.CONCAT("(",A7,", ",$I$2,B7)</f>
+        <f t="shared" si="0"/>
         <v>(6, "Łańcut</v>
       </c>
       <c r="H7" t="str">
-        <f>_xlfn.CONCAT(G7,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(6, "Łańcut"), </v>
       </c>
       <c r="J7" t="str">
-        <f>_xlfn.CONCAT("(",A6,", ",A7,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(5, 6, </v>
       </c>
       <c r="K7" t="str">
-        <f>TEXT(D7,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>20,2</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>20.2</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(5, 6, 20.2), </v>
       </c>
       <c r="N7">
@@ -1123,35 +1123,35 @@
         <v>52</v>
       </c>
       <c r="P7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="R7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="T7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.5416666666666666E-2</v>
       </c>
       <c r="U7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.6111111111111108E-2</v>
       </c>
       <c r="V7" t="str">
-        <f>_xlfn.CONCAT("(1, ",A7,", ",A7,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 6, 6, </v>
       </c>
       <c r="W7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 6, 6, 51, 52), </v>
       </c>
     </row>
@@ -1166,38 +1166,38 @@
         <v>86.8</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>16.700000000000003</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">StationID = 7 OR </v>
       </c>
       <c r="G8" t="str">
-        <f>_xlfn.CONCAT("(",A8,", ",$I$2,B8)</f>
+        <f t="shared" si="0"/>
         <v>(7, "Rzeszów Główny</v>
       </c>
       <c r="H8" t="str">
-        <f>_xlfn.CONCAT(G8,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(7, "Rzeszów Główny"), </v>
       </c>
       <c r="J8" t="str">
-        <f>_xlfn.CONCAT("(",A7,", ",A8,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(6, 7, </v>
       </c>
       <c r="K8" t="str">
-        <f>TEXT(D8,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>16,7</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16.7</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(6, 7, 16.7), </v>
       </c>
       <c r="N8">
@@ -1207,35 +1207,35 @@
         <v>65</v>
       </c>
       <c r="P8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="T8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.3055555555555555E-2</v>
       </c>
       <c r="U8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="V8" t="str">
-        <f>_xlfn.CONCAT("(1, ",A8,", ",A8,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 7, 7, </v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 7, 7, 62, 65), </v>
       </c>
     </row>
@@ -1250,38 +1250,38 @@
         <v>112.5</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>25.700000000000003</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G9" t="str">
-        <f>_xlfn.CONCAT("(",A9,", ",$I$2,B9)</f>
+        <f t="shared" si="0"/>
         <v>(8, "Sędziszów Małopolski</v>
       </c>
       <c r="H9" t="str">
-        <f>_xlfn.CONCAT(G9,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(8, "Sędziszów Małopolski"), </v>
       </c>
       <c r="J9" t="str">
-        <f>_xlfn.CONCAT("(",A8,", ",A9,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(7, 8, </v>
       </c>
       <c r="K9" t="str">
-        <f>TEXT(D9,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>25,7</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>25.7</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(7, 8, 25.7), </v>
       </c>
       <c r="N9">
@@ -1291,35 +1291,35 @@
         <v>80</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="R9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="T9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="U9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="V9" t="str">
-        <f>_xlfn.CONCAT("(1, ",A9,", ",A9,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 8, 8, </v>
       </c>
       <c r="W9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 8, 8, 78, 80), </v>
       </c>
     </row>
@@ -1334,38 +1334,38 @@
         <v>120.6</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8.0999999999999943</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G10" t="str">
-        <f>_xlfn.CONCAT("(",A10,", ",$I$2,B10)</f>
+        <f t="shared" si="0"/>
         <v>(9, "Ropczyce</v>
       </c>
       <c r="H10" t="str">
-        <f>_xlfn.CONCAT(G10,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(9, "Ropczyce"), </v>
       </c>
       <c r="J10" t="str">
-        <f>_xlfn.CONCAT("(",A9,", ",A10,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(8, 9, </v>
       </c>
       <c r="K10" t="str">
-        <f>TEXT(D10,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>8,1</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8.1</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(8, 9, 8.1), </v>
       </c>
       <c r="N10">
@@ -1375,35 +1375,35 @@
         <v>87</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="R10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.9027777777777776E-2</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="V10" t="str">
-        <f>_xlfn.CONCAT("(1, ",A10,", ",A10,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 9, 9, </v>
       </c>
       <c r="W10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 9, 9, 85, 87), </v>
       </c>
     </row>
@@ -1418,38 +1418,38 @@
         <v>133.69999999999999</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>13.099999999999994</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G11" t="str">
-        <f>_xlfn.CONCAT("(",A11,", ",$I$2,B11)</f>
+        <f t="shared" si="0"/>
         <v>(10, "Dębica</v>
       </c>
       <c r="H11" t="str">
-        <f>_xlfn.CONCAT(G11,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(10, "Dębica"), </v>
       </c>
       <c r="J11" t="str">
-        <f>_xlfn.CONCAT("(",A10,", ",A11,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(9, 10, </v>
       </c>
       <c r="K11" t="str">
-        <f>TEXT(D11,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>13,1</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>13.1</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(9, 10, 13.1), </v>
       </c>
       <c r="N11">
@@ -1459,35 +1459,35 @@
         <v>96</v>
       </c>
       <c r="P11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="R11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.5277777777777782E-2</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="V11" t="str">
-        <f>_xlfn.CONCAT("(1, ",A11,", ",A11,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 10, 10, </v>
       </c>
       <c r="W11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 10, 10, 94, 96), </v>
       </c>
     </row>
@@ -1502,38 +1502,38 @@
         <v>166.9</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>33.200000000000017</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G12" t="str">
-        <f>_xlfn.CONCAT("(",A12,", ",$I$2,B12)</f>
+        <f t="shared" si="0"/>
         <v>(11, "Tarnów</v>
       </c>
       <c r="H12" t="str">
-        <f>_xlfn.CONCAT(G12,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(11, "Tarnów"), </v>
       </c>
       <c r="J12" t="str">
-        <f>_xlfn.CONCAT("(",A11,", ",A12,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(10, 11, </v>
       </c>
       <c r="K12" t="str">
-        <f>TEXT(D12,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>33,2</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>33.2</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(10, 11, 33.2), </v>
       </c>
       <c r="N12">
@@ -1543,35 +1543,35 @@
         <v>114</v>
       </c>
       <c r="P12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="R12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="V12" t="str">
-        <f>_xlfn.CONCAT("(1, ",A12,", ",A12,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 11, 11, </v>
       </c>
       <c r="W12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 11, 11, 112, 114), </v>
       </c>
     </row>
@@ -1586,38 +1586,38 @@
         <v>193.4</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>26.5</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G13" t="str">
-        <f>_xlfn.CONCAT("(",A13,", ",$I$2,B13)</f>
+        <f t="shared" si="0"/>
         <v>(12, "Brzesko Okocim</v>
       </c>
       <c r="H13" t="str">
-        <f>_xlfn.CONCAT(G13,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(12, "Brzesko Okocim"), </v>
       </c>
       <c r="J13" t="str">
-        <f>_xlfn.CONCAT("(",A12,", ",A13,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(11, 12, </v>
       </c>
       <c r="K13" t="str">
-        <f>TEXT(D13,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>26,5</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>26.5</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(11, 12, 26.5), </v>
       </c>
       <c r="N13">
@@ -1627,35 +1627,35 @@
         <v>128</v>
       </c>
       <c r="P13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="R13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="S13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.819444444444445E-2</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="V13" t="str">
-        <f>_xlfn.CONCAT("(1, ",A13,", ",A13,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 12, 12, </v>
       </c>
       <c r="W13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 12, 12, 127, 128), </v>
       </c>
     </row>
@@ -1670,38 +1670,38 @@
         <v>206.3</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>12.900000000000006</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G14" t="str">
-        <f>_xlfn.CONCAT("(",A14,", ",$I$2,B14)</f>
+        <f t="shared" si="0"/>
         <v>(13, "Bochnia</v>
       </c>
       <c r="H14" t="str">
-        <f>_xlfn.CONCAT(G14,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(13, "Bochnia"), </v>
       </c>
       <c r="J14" t="str">
-        <f>_xlfn.CONCAT("(",A13,", ",A14,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(12, 13, </v>
       </c>
       <c r="K14" t="str">
-        <f>TEXT(D14,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>12,9</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>12.9</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(12, 13, 12.9), </v>
       </c>
       <c r="N14">
@@ -1711,35 +1711,35 @@
         <v>137</v>
       </c>
       <c r="P14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="R14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="S14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.375E-2</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="V14" t="str">
-        <f>_xlfn.CONCAT("(1, ",A14,", ",A14,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 13, 13, </v>
       </c>
       <c r="W14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 13, 13, 135, 137), </v>
       </c>
     </row>
@@ -1754,38 +1754,38 @@
         <v>240.2</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>33.899999999999977</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G15" t="str">
-        <f>_xlfn.CONCAT("(",A15,", ",$I$2,B15)</f>
+        <f t="shared" si="0"/>
         <v>(14, "Kraków Płaszów</v>
       </c>
       <c r="H15" t="str">
-        <f>_xlfn.CONCAT(G15,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(14, "Kraków Płaszów"), </v>
       </c>
       <c r="J15" t="str">
-        <f>_xlfn.CONCAT("(",A14,", ",A15,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(13, 14, </v>
       </c>
       <c r="K15" t="str">
-        <f>TEXT(D15,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>33,9</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>33.9</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(13, 14, 33.9), </v>
       </c>
       <c r="N15">
@@ -1795,35 +1795,35 @@
         <v>158</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="R15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="S15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.10694444444444444</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.10972222222222222</v>
       </c>
       <c r="V15" t="str">
-        <f>_xlfn.CONCAT("(1, ",A15,", ",A15,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 14, 14, </v>
       </c>
       <c r="W15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 14, 14, 154, 158), </v>
       </c>
     </row>
@@ -1838,38 +1838,38 @@
         <v>244.6</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4.4000000000000057</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">StationID = 15 OR </v>
       </c>
       <c r="G16" t="str">
-        <f>_xlfn.CONCAT("(",A16,", ",$I$2,B16)</f>
+        <f t="shared" si="0"/>
         <v>(15, "Kraków Główny</v>
       </c>
       <c r="H16" t="str">
-        <f>_xlfn.CONCAT(G16,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(15, "Kraków Główny"), </v>
       </c>
       <c r="J16" t="str">
-        <f>_xlfn.CONCAT("(",A15,", ",A16,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(14, 15, </v>
       </c>
       <c r="K16" t="str">
-        <f>TEXT(D16,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>4,4</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4.4</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(14, 15, 4.4), </v>
       </c>
       <c r="N16">
@@ -1879,35 +1879,35 @@
         <v>168</v>
       </c>
       <c r="P16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="R16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="S16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.1125</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.11666666666666667</v>
       </c>
       <c r="V16" t="str">
-        <f>_xlfn.CONCAT("(1, ",A16,", ",A16,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 15, 15, </v>
       </c>
       <c r="W16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 15, 15, 162, 168), </v>
       </c>
     </row>
@@ -1922,38 +1922,38 @@
         <v>269.7</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>25.099999999999994</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G17" t="str">
-        <f>_xlfn.CONCAT("(",A17,", ",$I$2,B17)</f>
+        <f t="shared" si="0"/>
         <v>(16, "Krzeszowice</v>
       </c>
       <c r="H17" t="str">
-        <f>_xlfn.CONCAT(G17,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(16, "Krzeszowice"), </v>
       </c>
       <c r="J17" t="str">
-        <f>_xlfn.CONCAT("(",A16,", ",A17,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(15, 16, </v>
       </c>
       <c r="K17" t="str">
-        <f>TEXT(D17,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>25,1</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>25.1</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(15, 16, 25.1), </v>
       </c>
       <c r="N17">
@@ -1963,35 +1963,35 @@
         <v>187</v>
       </c>
       <c r="P17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="R17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.12847222222222221</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.12986111111111112</v>
       </c>
       <c r="V17" t="str">
-        <f>_xlfn.CONCAT("(1, ",A17,", ",A17,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 16, 16, </v>
       </c>
       <c r="W17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 16, 16, 185, 187), </v>
       </c>
     </row>
@@ -2006,38 +2006,38 @@
         <v>283.39999999999998</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>13.699999999999989</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G18" t="str">
-        <f>_xlfn.CONCAT("(",A18,", ",$I$2,B18)</f>
+        <f t="shared" si="0"/>
         <v>(17, "Trzebinia</v>
       </c>
       <c r="H18" t="str">
-        <f>_xlfn.CONCAT(G18,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(17, "Trzebinia"), </v>
       </c>
       <c r="J18" t="str">
-        <f>_xlfn.CONCAT("(",A17,", ",A18,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(16, 17, </v>
       </c>
       <c r="K18" t="str">
-        <f>TEXT(D18,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>13,7</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>13.7</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(16, 17, 13.7), </v>
       </c>
       <c r="N18">
@@ -2047,35 +2047,35 @@
         <v>196</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="R18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.13472222222222222</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.1361111111111111</v>
       </c>
       <c r="V18" t="str">
-        <f>_xlfn.CONCAT("(1, ",A18,", ",A18,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 17, 17, </v>
       </c>
       <c r="W18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 17, 17, 194, 196), </v>
       </c>
     </row>
@@ -2090,38 +2090,38 @@
         <v>299.3</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>15.900000000000034</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G19" t="str">
-        <f>_xlfn.CONCAT("(",A19,", ",$I$2,B19)</f>
+        <f t="shared" si="0"/>
         <v>(18, "Jaworzno Szczakowa</v>
       </c>
       <c r="H19" t="str">
-        <f>_xlfn.CONCAT(G19,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(18, "Jaworzno Szczakowa"), </v>
       </c>
       <c r="J19" t="str">
-        <f>_xlfn.CONCAT("(",A18,", ",A19,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(17, 18, </v>
       </c>
       <c r="K19" t="str">
-        <f>TEXT(D19,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>15,9</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>15.9</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(17, 18, 15.9), </v>
       </c>
       <c r="N19">
@@ -2131,35 +2131,35 @@
         <v>214</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="R19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.1423611111111111</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.14861111111111111</v>
       </c>
       <c r="V19" t="str">
-        <f>_xlfn.CONCAT("(1, ",A19,", ",A19,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 18, 18, </v>
       </c>
       <c r="W19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 18, 18, 205, 214), </v>
       </c>
     </row>
@@ -2174,38 +2174,38 @@
         <v>311.7</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>12.399999999999977</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G20" t="str">
-        <f>_xlfn.CONCAT("(",A20,", ",$I$2,B20)</f>
+        <f t="shared" si="0"/>
         <v>(19, "Mysłowice</v>
       </c>
       <c r="H20" t="str">
-        <f>_xlfn.CONCAT(G20,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(19, "Mysłowice"), </v>
       </c>
       <c r="J20" t="str">
-        <f>_xlfn.CONCAT("(",A19,", ",A20,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(18, 19, </v>
       </c>
       <c r="K20" t="str">
-        <f>TEXT(D20,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>12,4</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>12.4</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(18, 19, 12.4), </v>
       </c>
       <c r="N20">
@@ -2215,35 +2215,35 @@
         <v>225</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="R20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.15416666666666667</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.15625</v>
       </c>
       <c r="V20" t="str">
-        <f>_xlfn.CONCAT("(1, ",A20,", ",A20,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 19, 19, </v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 19, 19, 222, 225), </v>
       </c>
     </row>
@@ -2258,38 +2258,38 @@
         <v>321.8</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>10.100000000000023</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">StationID = 20 OR </v>
       </c>
       <c r="G21" t="str">
-        <f>_xlfn.CONCAT("(",A21,", ",$I$2,B21)</f>
+        <f t="shared" si="0"/>
         <v>(20, "Katowice</v>
       </c>
       <c r="H21" t="str">
-        <f>_xlfn.CONCAT(G21,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(20, "Katowice"), </v>
       </c>
       <c r="J21" t="str">
-        <f>_xlfn.CONCAT("(",A20,", ",A21,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(19, 20, </v>
       </c>
       <c r="K21" t="str">
-        <f>TEXT(D21,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>10,1</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>10.1</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(19, 20, 10.1), </v>
       </c>
       <c r="N21">
@@ -2299,35 +2299,35 @@
         <v>241</v>
       </c>
       <c r="P21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="R21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.16527777777777777</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.1673611111111111</v>
       </c>
       <c r="V21" t="str">
-        <f>_xlfn.CONCAT("(1, ",A21,", ",A21,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 20, 20, </v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 20, 20, 238, 241), </v>
       </c>
     </row>
@@ -2342,38 +2342,38 @@
         <v>340.3</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>18.5</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G22" t="str">
-        <f>_xlfn.CONCAT("(",A22,", ",$I$2,B22)</f>
+        <f t="shared" si="0"/>
         <v>(21, "Zabrze</v>
       </c>
       <c r="H22" t="str">
-        <f>_xlfn.CONCAT(G22,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(21, "Zabrze"), </v>
       </c>
       <c r="J22" t="str">
-        <f>_xlfn.CONCAT("(",A21,", ",A22,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(20, 21, </v>
       </c>
       <c r="K22" t="str">
-        <f>TEXT(D22,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>18,5</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>18.5</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(20, 21, 18.5), </v>
       </c>
       <c r="N22">
@@ -2383,35 +2383,35 @@
         <v>256</v>
       </c>
       <c r="P22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="R22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.1763888888888889</v>
       </c>
       <c r="U22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.17777777777777778</v>
       </c>
       <c r="V22" t="str">
-        <f>_xlfn.CONCAT("(1, ",A22,", ",A22,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 21, 21, </v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 21, 21, 254, 256), </v>
       </c>
     </row>
@@ -2426,38 +2426,38 @@
         <v>348.5</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8.1999999999999886</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G23" t="str">
-        <f>_xlfn.CONCAT("(",A23,", ",$I$2,B23)</f>
+        <f t="shared" si="0"/>
         <v>(22, "Gliwice</v>
       </c>
       <c r="H23" t="str">
-        <f>_xlfn.CONCAT(G23,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(22, "Gliwice"), </v>
       </c>
       <c r="J23" t="str">
-        <f>_xlfn.CONCAT("(",A22,", ",A23,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(21, 22, </v>
       </c>
       <c r="K23" t="str">
-        <f>TEXT(D23,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>8,2</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8.2</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(21, 22, 8.2), </v>
       </c>
       <c r="N23">
@@ -2467,35 +2467,35 @@
         <v>273</v>
       </c>
       <c r="P23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="R23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.18263888888888888</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.18958333333333333</v>
       </c>
       <c r="V23" t="str">
-        <f>_xlfn.CONCAT("(1, ",A23,", ",A23,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 22, 22, </v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 22, 22, 263, 273), </v>
       </c>
     </row>
@@ -2510,38 +2510,38 @@
         <v>386.8</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>38.300000000000011</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G24" t="str">
-        <f>_xlfn.CONCAT("(",A24,", ",$I$2,B24)</f>
+        <f t="shared" si="0"/>
         <v>(23, "Strzelce Opolskie</v>
       </c>
       <c r="H24" t="str">
-        <f>_xlfn.CONCAT(G24,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(23, "Strzelce Opolskie"), </v>
       </c>
       <c r="J24" t="str">
-        <f>_xlfn.CONCAT("(",A23,", ",A24,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(22, 23, </v>
       </c>
       <c r="K24" t="str">
-        <f>TEXT(D24,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>38,3</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>38.3</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(22, 23, 38.3), </v>
       </c>
       <c r="N24">
@@ -2551,35 +2551,35 @@
         <v>303</v>
       </c>
       <c r="P24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="S24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.20972222222222223</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.21041666666666667</v>
       </c>
       <c r="V24" t="str">
-        <f>_xlfn.CONCAT("(1, ",A24,", ",A24,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 23, 23, </v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 23, 23, 302, 303), </v>
       </c>
     </row>
@@ -2594,38 +2594,38 @@
         <v>419.2</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>32.399999999999977</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
       </c>
       <c r="F25" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G25" t="str">
-        <f>_xlfn.CONCAT("(",A25,", ",$I$2,B25)</f>
+        <f t="shared" si="0"/>
         <v>(24, "Opole Główne</v>
       </c>
       <c r="H25" t="str">
-        <f>_xlfn.CONCAT(G25,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(24, "Opole Główne"), </v>
       </c>
       <c r="J25" t="str">
-        <f>_xlfn.CONCAT("(",A24,", ",A25,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(23, 24, </v>
       </c>
       <c r="K25" t="str">
-        <f>TEXT(D25,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>32,4</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>32.4</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(23, 24, 32.4), </v>
       </c>
       <c r="N25">
@@ -2635,35 +2635,35 @@
         <v>326</v>
       </c>
       <c r="P25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="R25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="S25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.22430555555555556</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.22638888888888889</v>
       </c>
       <c r="V25" t="str">
-        <f>_xlfn.CONCAT("(1, ",A25,", ",A25,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 24, 24, </v>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 24, 24, 323, 326), </v>
       </c>
     </row>
@@ -2678,38 +2678,38 @@
         <v>459.3</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>40.100000000000023</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G26" t="str">
-        <f>_xlfn.CONCAT("(",A26,", ",$I$2,B26)</f>
+        <f t="shared" si="0"/>
         <v>(25, "Brzeg</v>
       </c>
       <c r="H26" t="str">
-        <f>_xlfn.CONCAT(G26,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(25, "Brzeg"), </v>
       </c>
       <c r="J26" t="str">
-        <f>_xlfn.CONCAT("(",A25,", ",A26,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(24, 25, </v>
       </c>
       <c r="K26" t="str">
-        <f>TEXT(D26,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>40,1</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>40.1</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(24, 25, 40.1), </v>
       </c>
       <c r="N26">
@@ -2719,35 +2719,35 @@
         <v>345</v>
       </c>
       <c r="P26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="R26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="S26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.2388888888888889</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.23958333333333334</v>
       </c>
       <c r="V26" t="str">
-        <f>_xlfn.CONCAT("(1, ",A26,", ",A26,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 25, 25, </v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 25, 25, 344, 345), </v>
       </c>
     </row>
@@ -2762,38 +2762,38 @@
         <v>474.4</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>15.099999999999966</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G27" t="str">
-        <f>_xlfn.CONCAT("(",A27,", ",$I$2,B27)</f>
+        <f t="shared" si="0"/>
         <v>(26, "Oława</v>
       </c>
       <c r="H27" t="str">
-        <f>_xlfn.CONCAT(G27,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(26, "Oława"), </v>
       </c>
       <c r="J27" t="str">
-        <f>_xlfn.CONCAT("(",A26,", ",A27,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(25, 26, </v>
       </c>
       <c r="K27" t="str">
-        <f>TEXT(D27,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>15,1</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>15.1</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(25, 26, 15.1), </v>
       </c>
       <c r="N27">
@@ -2803,35 +2803,35 @@
         <v>355</v>
       </c>
       <c r="P27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="R27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="S27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.24583333333333332</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.24652777777777779</v>
       </c>
       <c r="V27" t="str">
-        <f>_xlfn.CONCAT("(1, ",A27,", ",A27,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 26, 26, </v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 26, 26, 354, 355), </v>
       </c>
     </row>
@@ -2846,38 +2846,38 @@
         <v>500.9</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>26.5</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
       </c>
       <c r="F28" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">StationID = 27 OR </v>
       </c>
       <c r="G28" t="str">
-        <f>_xlfn.CONCAT("(",A28,", ",$I$2,B28)</f>
+        <f t="shared" si="0"/>
         <v>(27, "Wrocław Główny</v>
       </c>
       <c r="H28" t="str">
-        <f>_xlfn.CONCAT(G28,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(27, "Wrocław Główny"), </v>
       </c>
       <c r="J28" t="str">
-        <f>_xlfn.CONCAT("(",A27,", ",A28,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(26, 27, </v>
       </c>
       <c r="K28" t="str">
-        <f>TEXT(D28,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>26,5</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>26.5</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(26, 27, 26.5), </v>
       </c>
       <c r="N28">
@@ -2887,35 +2887,35 @@
         <v>377</v>
       </c>
       <c r="P28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="R28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="S28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.25833333333333336</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.26180555555555557</v>
       </c>
       <c r="V28" t="str">
-        <f>_xlfn.CONCAT("(1, ",A28,", ",A28,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 27, 27, </v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 27, 27, 372, 377), </v>
       </c>
     </row>
@@ -2930,38 +2930,38 @@
         <v>527.29999999999995</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>26.399999999999977</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G29" t="str">
-        <f>_xlfn.CONCAT("(",A29,", ",$I$2,B29)</f>
+        <f t="shared" si="0"/>
         <v>(28, "Oborniki Śląskie</v>
       </c>
       <c r="H29" t="str">
-        <f>_xlfn.CONCAT(G29,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(28, "Oborniki Śląskie"), </v>
       </c>
       <c r="J29" t="str">
-        <f>_xlfn.CONCAT("(",A28,", ",A29,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(27, 28, </v>
       </c>
       <c r="K29" t="str">
-        <f>TEXT(D29,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>26,4</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>26.4</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(27, 28, 26.4), </v>
       </c>
       <c r="N29">
@@ -2971,35 +2971,35 @@
         <v>393</v>
       </c>
       <c r="P29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="R29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="S29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.2722222222222222</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.27291666666666664</v>
       </c>
       <c r="V29" t="str">
-        <f>_xlfn.CONCAT("(1, ",A29,", ",A29,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 28, 28, </v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 28, 28, 392, 393), </v>
       </c>
     </row>
@@ -3014,38 +3014,38 @@
         <v>548</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>20.700000000000045</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
       </c>
       <c r="F30" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G30" t="str">
-        <f>_xlfn.CONCAT("(",A30,", ",$I$2,B30)</f>
+        <f t="shared" si="0"/>
         <v>(29, "Żmigród</v>
       </c>
       <c r="H30" t="str">
-        <f>_xlfn.CONCAT(G30,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(29, "Żmigród"), </v>
       </c>
       <c r="J30" t="str">
-        <f>_xlfn.CONCAT("(",A29,", ",A30,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(28, 29, </v>
       </c>
       <c r="K30" t="str">
-        <f>TEXT(D30,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>20,7</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>20.7</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(28, 29, 20.7), </v>
       </c>
       <c r="N30">
@@ -3055,35 +3055,35 @@
         <v>404</v>
       </c>
       <c r="P30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="R30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="S30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.27986111111111112</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.28055555555555556</v>
       </c>
       <c r="V30" t="str">
-        <f>_xlfn.CONCAT("(1, ",A30,", ",A30,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 29, 29, </v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 29, 29, 403, 404), </v>
       </c>
     </row>
@@ -3098,38 +3098,38 @@
         <v>564</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
       </c>
       <c r="F31" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G31" t="str">
-        <f>_xlfn.CONCAT("(",A31,", ",$I$2,B31)</f>
+        <f t="shared" si="0"/>
         <v>(30, "Rawicz</v>
       </c>
       <c r="H31" t="str">
-        <f>_xlfn.CONCAT(G31,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(30, "Rawicz"), </v>
       </c>
       <c r="J31" t="str">
-        <f>_xlfn.CONCAT("(",A30,", ",A31,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(29, 30, </v>
       </c>
       <c r="K31" t="str">
-        <f>TEXT(D31,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>16,0</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16.0</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(29, 30, 16.0), </v>
       </c>
       <c r="N31">
@@ -3139,35 +3139,35 @@
         <v>414</v>
       </c>
       <c r="P31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="R31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="S31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.28680555555555554</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.28749999999999998</v>
       </c>
       <c r="V31" t="str">
-        <f>_xlfn.CONCAT("(1, ",A31,", ",A31,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 30, 30, </v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 30, 30, 413, 414), </v>
       </c>
     </row>
@@ -3182,38 +3182,38 @@
         <v>596.70000000000005</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>32.700000000000045</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G32" t="str">
-        <f>_xlfn.CONCAT("(",A32,", ",$I$2,B32)</f>
+        <f t="shared" si="0"/>
         <v>(31, "Leszno</v>
       </c>
       <c r="H32" t="str">
-        <f>_xlfn.CONCAT(G32,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(31, "Leszno"), </v>
       </c>
       <c r="J32" t="str">
-        <f>_xlfn.CONCAT("(",A31,", ",A32,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(30, 31, </v>
       </c>
       <c r="K32" t="str">
-        <f>TEXT(D32,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>32,7</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>32.7</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(30, 31, 32.7), </v>
       </c>
       <c r="N32">
@@ -3223,35 +3223,35 @@
         <v>430</v>
       </c>
       <c r="P32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="R32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="S32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.29791666666666666</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.2986111111111111</v>
       </c>
       <c r="V32" t="str">
-        <f>_xlfn.CONCAT("(1, ",A32,", ",A32,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 31, 31, </v>
       </c>
       <c r="W32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 31, 31, 429, 430), </v>
       </c>
     </row>
@@ -3266,38 +3266,38 @@
         <v>623.6</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>26.899999999999977</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G33" t="str">
-        <f>_xlfn.CONCAT("(",A33,", ",$I$2,B33)</f>
+        <f t="shared" si="0"/>
         <v>(32, "Kościan</v>
       </c>
       <c r="H33" t="str">
-        <f>_xlfn.CONCAT(G33,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(32, "Kościan"), </v>
       </c>
       <c r="J33" t="str">
-        <f>_xlfn.CONCAT("(",A32,", ",A33,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(31, 32, </v>
       </c>
       <c r="K33" t="str">
-        <f>TEXT(D33,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>26,9</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>26.9</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(31, 32, 26.9), </v>
       </c>
       <c r="N33">
@@ -3307,35 +3307,35 @@
         <v>444</v>
       </c>
       <c r="P33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="R33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="S33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.30763888888888891</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.30833333333333335</v>
       </c>
       <c r="V33" t="str">
-        <f>_xlfn.CONCAT("(1, ",A33,", ",A33,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 32, 32, </v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 32, 32, 443, 444), </v>
       </c>
     </row>
@@ -3350,38 +3350,38 @@
         <v>665.4</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>41.799999999999955</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
       <c r="F34" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">StationID = 33 OR </v>
       </c>
       <c r="G34" t="str">
-        <f>_xlfn.CONCAT("(",A34,", ",$I$2,B34)</f>
+        <f t="shared" si="0"/>
         <v>(33, "Poznań Główny</v>
       </c>
       <c r="H34" t="str">
-        <f>_xlfn.CONCAT(G34,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(33, "Poznań Główny"), </v>
       </c>
       <c r="J34" t="str">
-        <f>_xlfn.CONCAT("(",A33,", ",A34,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(32, 33, </v>
       </c>
       <c r="K34" t="str">
-        <f>TEXT(D34,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>41,8</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>41.8</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(32, 33, 41.8), </v>
       </c>
       <c r="N34">
@@ -3391,35 +3391,35 @@
         <v>470</v>
       </c>
       <c r="P34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="R34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="S34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="T34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.32361111111111113</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.3263888888888889</v>
       </c>
       <c r="V34" t="str">
-        <f>_xlfn.CONCAT("(1, ",A34,", ",A34,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 33, 33, </v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 33, 33, 466, 470), </v>
       </c>
     </row>
@@ -3434,38 +3434,38 @@
         <v>694.8</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>29.399999999999977</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G35" t="str">
-        <f>_xlfn.CONCAT("(",A35,", ",$I$2,B35)</f>
+        <f t="shared" si="0"/>
         <v>(34, "Oborniki Wielkopolskie Miasto</v>
       </c>
       <c r="H35" t="str">
-        <f>_xlfn.CONCAT(G35,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(34, "Oborniki Wielkopolskie Miasto"), </v>
       </c>
       <c r="J35" t="str">
-        <f>_xlfn.CONCAT("(",A34,", ",A35,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(33, 34, </v>
       </c>
       <c r="K35" t="str">
-        <f>TEXT(D35,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>29,4</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>29.4</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(33, 34, 29.4), </v>
       </c>
       <c r="N35">
@@ -3475,35 +3475,35 @@
         <v>503</v>
       </c>
       <c r="P35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="R35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="S35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.34861111111111109</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.34930555555555554</v>
       </c>
       <c r="V35" t="str">
-        <f>_xlfn.CONCAT("(1, ",A35,", ",A35,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 34, 34, </v>
       </c>
       <c r="W35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 34, 34, 502, 503), </v>
       </c>
     </row>
@@ -3518,38 +3518,38 @@
         <v>711</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>16.200000000000045</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G36" t="str">
-        <f>_xlfn.CONCAT("(",A36,", ",$I$2,B36)</f>
+        <f t="shared" si="0"/>
         <v>(35, "Rogoźno Wielkopolskie</v>
       </c>
       <c r="H36" t="str">
-        <f>_xlfn.CONCAT(G36,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(35, "Rogoźno Wielkopolskie"), </v>
       </c>
       <c r="J36" t="str">
-        <f>_xlfn.CONCAT("(",A35,", ",A36,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(34, 35, </v>
       </c>
       <c r="K36" t="str">
-        <f>TEXT(D36,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>16,2</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16.2</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(34, 35, 16.2), </v>
       </c>
       <c r="N36">
@@ -3559,35 +3559,35 @@
         <v>514</v>
       </c>
       <c r="P36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="R36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="S36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.35625000000000001</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.35694444444444445</v>
       </c>
       <c r="V36" t="str">
-        <f>_xlfn.CONCAT("(1, ",A36,", ",A36,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 35, 35, </v>
       </c>
       <c r="W36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 35, 35, 513, 514), </v>
       </c>
     </row>
@@ -3602,38 +3602,38 @@
         <v>738.9</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>27.899999999999977</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
       </c>
       <c r="F37" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G37" t="str">
-        <f>_xlfn.CONCAT("(",A37,", ",$I$2,B37)</f>
+        <f t="shared" si="0"/>
         <v>(36, "Chodzież</v>
       </c>
       <c r="H37" t="str">
-        <f>_xlfn.CONCAT(G37,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(36, "Chodzież"), </v>
       </c>
       <c r="J37" t="str">
-        <f>_xlfn.CONCAT("(",A36,", ",A37,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(35, 36, </v>
       </c>
       <c r="K37" t="str">
-        <f>TEXT(D37,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>27,9</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>27.9</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(35, 36, 27.9), </v>
       </c>
       <c r="N37">
@@ -3643,35 +3643,35 @@
         <v>531</v>
       </c>
       <c r="P37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="R37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="S37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="T37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.36805555555555558</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.36875000000000002</v>
       </c>
       <c r="V37" t="str">
-        <f>_xlfn.CONCAT("(1, ",A37,", ",A37,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 36, 36, </v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 36, 36, 530, 531), </v>
       </c>
     </row>
@@ -3686,38 +3686,38 @@
         <v>761</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>22.100000000000023</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
       </c>
       <c r="F38" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G38" t="str">
-        <f>_xlfn.CONCAT("(",A38,", ",$I$2,B38)</f>
+        <f t="shared" si="0"/>
         <v>(37, "Piła Główna</v>
       </c>
       <c r="H38" t="str">
-        <f>_xlfn.CONCAT(G38,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(37, "Piła Główna"), </v>
       </c>
       <c r="J38" t="str">
-        <f>_xlfn.CONCAT("(",A37,", ",A38,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(36, 37, </v>
       </c>
       <c r="K38" t="str">
-        <f>TEXT(D38,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>22,1</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.1</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(36, 37, 22.1), </v>
       </c>
       <c r="N38">
@@ -3727,35 +3727,35 @@
         <v>547</v>
       </c>
       <c r="P38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="R38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="S38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.37916666666666665</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.37986111111111109</v>
       </c>
       <c r="V38" t="str">
-        <f>_xlfn.CONCAT("(1, ",A38,", ",A38,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 37, 37, </v>
       </c>
       <c r="W38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 37, 37, 546, 547), </v>
       </c>
     </row>
@@ -3770,38 +3770,38 @@
         <v>795.8</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>34.799999999999955</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
       </c>
       <c r="F39" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G39" t="str">
-        <f>_xlfn.CONCAT("(",A39,", ",$I$2,B39)</f>
+        <f t="shared" si="0"/>
         <v>(38, "Jastrowie</v>
       </c>
       <c r="H39" t="str">
-        <f>_xlfn.CONCAT(G39,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(38, "Jastrowie"), </v>
       </c>
       <c r="J39" t="str">
-        <f>_xlfn.CONCAT("(",A38,", ",A39,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(37, 38, </v>
       </c>
       <c r="K39" t="str">
-        <f>TEXT(D39,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>34,8</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>34.8</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(37, 38, 34.8), </v>
       </c>
       <c r="N39">
@@ -3811,35 +3811,35 @@
         <v>573</v>
       </c>
       <c r="P39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="R39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="S39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.3972222222222222</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.39791666666666664</v>
       </c>
       <c r="V39" t="str">
-        <f>_xlfn.CONCAT("(1, ",A39,", ",A39,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 38, 38, </v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 38, 38, 572, 573), </v>
       </c>
     </row>
@@ -3854,38 +3854,38 @@
         <v>831.7</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>35.900000000000091</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
       </c>
       <c r="F40" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G40" t="str">
-        <f>_xlfn.CONCAT("(",A40,", ",$I$2,B40)</f>
+        <f t="shared" si="0"/>
         <v>(39, "Szczecinek</v>
       </c>
       <c r="H40" t="str">
-        <f>_xlfn.CONCAT(G40,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(39, "Szczecinek"), </v>
       </c>
       <c r="J40" t="str">
-        <f>_xlfn.CONCAT("(",A39,", ",A40,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(38, 39, </v>
       </c>
       <c r="K40" t="str">
-        <f>TEXT(D40,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>35,9</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>35.9</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(38, 39, 35.9), </v>
       </c>
       <c r="N40">
@@ -3895,35 +3895,35 @@
         <v>605</v>
       </c>
       <c r="P40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="S40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.41736111111111113</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.4201388888888889</v>
       </c>
       <c r="V40" t="str">
-        <f>_xlfn.CONCAT("(1, ",A40,", ",A40,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 39, 39, </v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 39, 39, 601, 605), </v>
       </c>
     </row>
@@ -3938,38 +3938,38 @@
         <v>895.2</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>63.5</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G41" t="str">
-        <f>_xlfn.CONCAT("(",A41,", ",$I$2,B41)</f>
+        <f t="shared" si="0"/>
         <v>(40, "Białograd</v>
       </c>
       <c r="H41" t="str">
-        <f>_xlfn.CONCAT(G41,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(40, "Białograd"), </v>
       </c>
       <c r="J41" t="str">
-        <f>_xlfn.CONCAT("(",A40,", ",A41,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(39, 40, </v>
       </c>
       <c r="K41" t="str">
-        <f>TEXT(D41,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>63,5</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>63.5</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(39, 40, 63.5), </v>
       </c>
       <c r="N41">
@@ -3979,35 +3979,35 @@
         <v>667</v>
       </c>
       <c r="P41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="R41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="S41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="T41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.46111111111111114</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.46319444444444446</v>
       </c>
       <c r="V41" t="str">
-        <f>_xlfn.CONCAT("(1, ",A41,", ",A41,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 40, 40, </v>
       </c>
       <c r="W41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 40, 40, 664, 667), </v>
       </c>
     </row>
@@ -4022,38 +4022,38 @@
         <v>919.6</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>24.399999999999977</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G42" t="str">
-        <f>_xlfn.CONCAT("(",A42,", ",$I$2,B42)</f>
+        <f t="shared" si="0"/>
         <v>(41, "Koszalin</v>
       </c>
       <c r="H42" t="str">
-        <f>_xlfn.CONCAT(G42,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(41, "Koszalin"), </v>
       </c>
       <c r="J42" t="str">
-        <f>_xlfn.CONCAT("(",A41,", ",A42,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(40, 41, </v>
       </c>
       <c r="K42" t="str">
-        <f>TEXT(D42,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>24,4</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>24.4</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(40, 41, 24.4), </v>
       </c>
       <c r="N42">
@@ -4063,35 +4063,35 @@
         <v>683</v>
       </c>
       <c r="P42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="R42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="S42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.47291666666666665</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.47430555555555554</v>
       </c>
       <c r="V42" t="str">
-        <f>_xlfn.CONCAT("(1, ",A42,", ",A42,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 41, 41, </v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 41, 41, 681, 683), </v>
       </c>
     </row>
@@ -4106,38 +4106,38 @@
         <v>959.6</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G43" t="str">
-        <f>_xlfn.CONCAT("(",A43,", ",$I$2,B43)</f>
+        <f t="shared" si="0"/>
         <v>(42, "Sławno</v>
       </c>
       <c r="H43" t="str">
-        <f>_xlfn.CONCAT(G43,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(42, "Sławno"), </v>
       </c>
       <c r="J43" t="str">
-        <f>_xlfn.CONCAT("(",A42,", ",A43,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(41, 42, </v>
       </c>
       <c r="K43" t="str">
-        <f>TEXT(D43,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>40,0</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>40.0</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(41, 42, 40.0), </v>
       </c>
       <c r="N43">
@@ -4147,35 +4147,35 @@
         <v>713</v>
       </c>
       <c r="P43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="R43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="S43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.49444444444444446</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.49513888888888891</v>
       </c>
       <c r="V43" t="str">
-        <f>_xlfn.CONCAT("(1, ",A43,", ",A43,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 42, 42, </v>
       </c>
       <c r="W43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 42, 42, 712, 713), </v>
       </c>
     </row>
@@ -4190,38 +4190,38 @@
         <v>986.7</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>27.100000000000023</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G44" t="str">
-        <f>_xlfn.CONCAT("(",A44,", ",$I$2,B44)</f>
+        <f t="shared" si="0"/>
         <v>(43, "Słupsk</v>
       </c>
       <c r="H44" t="str">
-        <f>_xlfn.CONCAT(G44,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(43, "Słupsk"), </v>
       </c>
       <c r="J44" t="str">
-        <f>_xlfn.CONCAT("(",A43,", ",A44,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(42, 43, </v>
       </c>
       <c r="K44" t="str">
-        <f>TEXT(D44,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>27,1</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>27.1</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(42, 43, 27.1), </v>
       </c>
       <c r="N44">
@@ -4231,35 +4231,35 @@
         <v>734</v>
       </c>
       <c r="P44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="R44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="S44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.5083333333333333</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.50972222222222219</v>
       </c>
       <c r="V44" t="str">
-        <f>_xlfn.CONCAT("(1, ",A44,", ",A44,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 43, 43, </v>
       </c>
       <c r="W44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 43, 43, 732, 734), </v>
       </c>
     </row>
@@ -4274,38 +4274,38 @@
         <v>1003.8</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>17.099999999999909</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
       </c>
       <c r="F45" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">StationID = 44 OR </v>
       </c>
       <c r="G45" t="str">
-        <f>_xlfn.CONCAT("(",A45,", ",$I$2,B45)</f>
+        <f t="shared" si="0"/>
         <v>(44, "Ustka</v>
       </c>
       <c r="H45" t="str">
-        <f>_xlfn.CONCAT(G45,$I$2,"), ")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">(44, "Ustka"), </v>
       </c>
       <c r="J45" t="str">
-        <f>_xlfn.CONCAT("(",A44,", ",A45,", ")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">(43, 44, </v>
       </c>
       <c r="K45" t="str">
-        <f>TEXT(D45,"##0,0")</f>
+        <f t="shared" si="5"/>
         <v>17,1</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17.1</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">(43, 44, 17.1), </v>
       </c>
       <c r="N45">
@@ -4315,35 +4315,35 @@
         <v>748</v>
       </c>
       <c r="P45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="R45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="S45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="T45" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.51944444444444449</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.51944444444444449</v>
       </c>
       <c r="V45" t="str">
-        <f>_xlfn.CONCAT("(1, ",A45,", ",A45,", ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(1, 44, 44, </v>
       </c>
       <c r="W45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">(1, 44, 44, 748, 748), </v>
       </c>
     </row>
@@ -4355,19 +4355,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B41CC0C-81B4-476A-A9A2-C742353846F1}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="26.453125" customWidth="1"/>
-    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" customWidth="1"/>
+    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -4378,16 +4382,25 @@
         <v>46</v>
       </c>
       <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>44</v>
       </c>
@@ -4398,29 +4411,39 @@
         <v>42</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>748</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>748</v>
       </c>
-      <c r="F2">
-        <f>748-D2</f>
+      <c r="H2">
+        <f>748-F2</f>
         <v>0</v>
       </c>
-      <c r="G2">
-        <f>748-E2</f>
+      <c r="I2">
+        <f>748-G2</f>
         <v>0</v>
       </c>
-      <c r="H2" t="str">
+      <c r="J2" t="str">
         <f>_xlfn.CONCAT("(2, ",B2,", ",A2,", ")</f>
         <v xml:space="preserve">(2, 1, 44, </v>
       </c>
-      <c r="I2" t="str">
-        <f>_xlfn.CONCAT(H2,F2,", ",G2,"), ")</f>
+      <c r="K2" t="str">
+        <f>_xlfn.CONCAT(J2,H2,", ",I2,"), ")</f>
         <v xml:space="preserve">(2, 1, 44, 0, 0), </v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="str">
+        <f>_xlfn.CONCAT(J2,D2,", ",E2,"), ")</f>
+        <v xml:space="preserve">(2, 1, 44, 0, 0), </v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>43</v>
       </c>
@@ -4431,29 +4454,39 @@
         <v>41</v>
       </c>
       <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
         <v>732</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>734</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F45" si="0">748-D3</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H45" si="0">748-F3</f>
         <v>16</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G45" si="1">748-E3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I45" si="1">748-G3</f>
         <v>14</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H45" si="2">_xlfn.CONCAT("(2, ",B3,", ",A3,", ")</f>
+      <c r="J3" t="str">
+        <f>_xlfn.CONCAT("(2, ",B3,", ",A3,", ")</f>
         <v xml:space="preserve">(2, 2, 43, </v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I45" si="3">_xlfn.CONCAT(H3,F3,", ",G3,"), ")</f>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K45" si="2">_xlfn.CONCAT(J3,H3,", ",I3,"), ")</f>
         <v xml:space="preserve">(2, 2, 43, 16, 14), </v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L45" si="3">_xlfn.CONCAT(J3,D3,", ",E3,"), ")</f>
+        <v xml:space="preserve">(2, 2, 43, 14, 16), </v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>42</v>
       </c>
@@ -4464,32 +4497,39 @@
         <v>40</v>
       </c>
       <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>36</v>
+      </c>
+      <c r="F4">
         <v>712</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>713</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="2"/>
+      <c r="J4" t="str">
+        <f>_xlfn.CONCAT("(2, ",B4,", ",A4,", ")</f>
         <v xml:space="preserve">(2, 3, 42, </v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" si="3"/>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 3, 42, 36, 35), </v>
       </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 3, 42, 35, 36), </v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>41</v>
       </c>
@@ -4500,32 +4540,39 @@
         <v>39</v>
       </c>
       <c r="D5">
+        <v>71</v>
+      </c>
+      <c r="E5">
+        <v>73</v>
+      </c>
+      <c r="F5">
         <v>681</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>683</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="2"/>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT("(2, ",B5,", ",A5,", ")</f>
         <v xml:space="preserve">(2, 4, 41, </v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 4, 41, 67, 65), </v>
       </c>
-      <c r="K5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 4, 41, 71, 73), </v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>40</v>
       </c>
@@ -4536,32 +4583,39 @@
         <v>38</v>
       </c>
       <c r="D6">
+        <v>87</v>
+      </c>
+      <c r="E6">
+        <v>88</v>
+      </c>
+      <c r="F6">
         <v>664</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>667</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" si="2"/>
+      <c r="J6" t="str">
+        <f>_xlfn.CONCAT("(2, ",B6,", ",A6,", ")</f>
         <v xml:space="preserve">(2, 5, 40, </v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="3"/>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 5, 40, 84, 81), </v>
       </c>
-      <c r="K6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 5, 40, 87, 88), </v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>39</v>
       </c>
@@ -4572,29 +4626,39 @@
         <v>37</v>
       </c>
       <c r="D7">
+        <v>142</v>
+      </c>
+      <c r="E7">
+        <v>143</v>
+      </c>
+      <c r="F7">
         <v>601</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>605</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" si="2"/>
+      <c r="J7" t="str">
+        <f>_xlfn.CONCAT("(2, ",B7,", ",A7,", ")</f>
         <v xml:space="preserve">(2, 6, 39, </v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="3"/>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 6, 39, 147, 143), </v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 6, 39, 142, 143), </v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>38</v>
       </c>
@@ -4605,29 +4669,39 @@
         <v>36</v>
       </c>
       <c r="D8">
+        <v>170</v>
+      </c>
+      <c r="E8">
+        <v>171</v>
+      </c>
+      <c r="F8">
         <v>572</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>573</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" si="2"/>
+      <c r="J8" t="str">
+        <f>_xlfn.CONCAT("(2, ",B8,", ",A8,", ")</f>
         <v xml:space="preserve">(2, 7, 38, </v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" si="3"/>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 7, 38, 176, 175), </v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 7, 38, 170, 171), </v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>37</v>
       </c>
@@ -4638,29 +4712,39 @@
         <v>35</v>
       </c>
       <c r="D9">
+        <v>198</v>
+      </c>
+      <c r="E9">
+        <v>204</v>
+      </c>
+      <c r="F9">
         <v>546</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>547</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>201</v>
       </c>
-      <c r="H9" t="str">
-        <f t="shared" si="2"/>
+      <c r="J9" t="str">
+        <f>_xlfn.CONCAT("(2, ",B9,", ",A9,", ")</f>
         <v xml:space="preserve">(2, 8, 37, </v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" si="3"/>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 8, 37, 202, 201), </v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 8, 37, 198, 204), </v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>36</v>
       </c>
@@ -4671,29 +4755,39 @@
         <v>34</v>
       </c>
       <c r="D10">
+        <v>219</v>
+      </c>
+      <c r="E10">
+        <v>220</v>
+      </c>
+      <c r="F10">
         <v>530</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>531</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
-      <c r="H10" t="str">
-        <f t="shared" si="2"/>
+      <c r="J10" t="str">
+        <f>_xlfn.CONCAT("(2, ",B10,", ",A10,", ")</f>
         <v xml:space="preserve">(2, 9, 36, </v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" si="3"/>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 9, 36, 218, 217), </v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 9, 36, 219, 220), </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>35</v>
       </c>
@@ -4704,29 +4798,39 @@
         <v>33</v>
       </c>
       <c r="D11">
+        <v>239</v>
+      </c>
+      <c r="E11">
+        <v>240</v>
+      </c>
+      <c r="F11">
         <v>513</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>514</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" si="2"/>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("(2, ",B11,", ",A11,", ")</f>
         <v xml:space="preserve">(2, 10, 35, </v>
       </c>
-      <c r="I11" t="str">
-        <f t="shared" si="3"/>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 10, 35, 235, 234), </v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 10, 35, 239, 240), </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>34</v>
       </c>
@@ -4737,29 +4841,39 @@
         <v>32</v>
       </c>
       <c r="D12">
+        <v>249</v>
+      </c>
+      <c r="E12">
+        <v>250</v>
+      </c>
+      <c r="F12">
         <v>502</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>503</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="H12" t="str">
-        <f t="shared" si="2"/>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("(2, ",B12,", ",A12,", ")</f>
         <v xml:space="preserve">(2, 11, 34, </v>
       </c>
-      <c r="I12" t="str">
-        <f t="shared" si="3"/>
+      <c r="K12" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 11, 34, 246, 245), </v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 11, 34, 249, 250), </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>33</v>
       </c>
@@ -4770,29 +4884,39 @@
         <v>31</v>
       </c>
       <c r="D13">
+        <v>273</v>
+      </c>
+      <c r="E13">
+        <v>293</v>
+      </c>
+      <c r="F13">
         <v>466</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>470</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>282</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <f t="shared" si="1"/>
         <v>278</v>
       </c>
-      <c r="H13" t="str">
-        <f t="shared" si="2"/>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("(2, ",B13,", ",A13,", ")</f>
         <v xml:space="preserve">(2, 12, 33, </v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" si="3"/>
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 12, 33, 282, 278), </v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 12, 33, 273, 293), </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>32</v>
       </c>
@@ -4803,29 +4927,39 @@
         <v>30</v>
       </c>
       <c r="D14">
+        <v>315</v>
+      </c>
+      <c r="E14">
+        <v>316</v>
+      </c>
+      <c r="F14">
         <v>443</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>444</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="H14" t="str">
-        <f t="shared" si="2"/>
+      <c r="J14" t="str">
+        <f>_xlfn.CONCAT("(2, ",B14,", ",A14,", ")</f>
         <v xml:space="preserve">(2, 13, 32, </v>
       </c>
-      <c r="I14" t="str">
-        <f t="shared" si="3"/>
+      <c r="K14" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 13, 32, 305, 304), </v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 13, 32, 315, 316), </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>31</v>
       </c>
@@ -4836,29 +4970,39 @@
         <v>29</v>
       </c>
       <c r="D15">
+        <v>330</v>
+      </c>
+      <c r="E15">
+        <v>331</v>
+      </c>
+      <c r="F15">
         <v>429</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>430</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>319</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
-      <c r="H15" t="str">
-        <f t="shared" si="2"/>
+      <c r="J15" t="str">
+        <f>_xlfn.CONCAT("(2, ",B15,", ",A15,", ")</f>
         <v xml:space="preserve">(2, 14, 31, </v>
       </c>
-      <c r="I15" t="str">
-        <f t="shared" si="3"/>
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 14, 31, 319, 318), </v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" t="str">
+        <f>_xlfn.CONCAT(J15,D16,", ",E16,"), ")</f>
+        <v xml:space="preserve">(2, 14, 31, 346, 347), </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>30</v>
       </c>
@@ -4869,29 +5013,39 @@
         <v>28</v>
       </c>
       <c r="D16">
+        <v>346</v>
+      </c>
+      <c r="E16">
+        <v>347</v>
+      </c>
+      <c r="F16">
         <v>413</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>414</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>335</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>334</v>
       </c>
-      <c r="H16" t="str">
-        <f t="shared" si="2"/>
+      <c r="J16" t="str">
+        <f>_xlfn.CONCAT("(2, ",B16,", ",A16,", ")</f>
         <v xml:space="preserve">(2, 15, 30, </v>
       </c>
-      <c r="I16" t="str">
-        <f t="shared" si="3"/>
+      <c r="K16" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 15, 30, 335, 334), </v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L16" t="str">
+        <f>_xlfn.CONCAT(J16,D17,", ",E17,"), ")</f>
+        <v xml:space="preserve">(2, 15, 30, 356, 357), </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>29</v>
       </c>
@@ -4902,29 +5056,39 @@
         <v>27</v>
       </c>
       <c r="D17">
+        <v>356</v>
+      </c>
+      <c r="E17">
+        <v>357</v>
+      </c>
+      <c r="F17">
         <v>403</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>404</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" si="2"/>
+      <c r="J17" t="str">
+        <f>_xlfn.CONCAT("(2, ",B17,", ",A17,", ")</f>
         <v xml:space="preserve">(2, 16, 29, </v>
       </c>
-      <c r="I17" t="str">
-        <f t="shared" si="3"/>
+      <c r="K17" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 16, 29, 345, 344), </v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L17" t="str">
+        <f>_xlfn.CONCAT(J17,D17,", ",E17,"), ")</f>
+        <v xml:space="preserve">(2, 16, 29, 356, 357), </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>28</v>
       </c>
@@ -4935,29 +5099,39 @@
         <v>26</v>
       </c>
       <c r="D18">
+        <v>367</v>
+      </c>
+      <c r="E18">
+        <v>368</v>
+      </c>
+      <c r="F18">
         <v>392</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>393</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>355</v>
       </c>
-      <c r="H18" t="str">
-        <f t="shared" si="2"/>
+      <c r="J18" t="str">
+        <f>_xlfn.CONCAT("(2, ",B18,", ",A18,", ")</f>
         <v xml:space="preserve">(2, 17, 28, </v>
       </c>
-      <c r="I18" t="str">
-        <f t="shared" si="3"/>
+      <c r="K18" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 17, 28, 356, 355), </v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 17, 28, 367, 368), </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>27</v>
       </c>
@@ -4968,29 +5142,39 @@
         <v>25</v>
       </c>
       <c r="D19">
+        <v>383</v>
+      </c>
+      <c r="E19">
+        <v>393</v>
+      </c>
+      <c r="F19">
         <v>372</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>377</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>376</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>371</v>
       </c>
-      <c r="H19" t="str">
-        <f t="shared" si="2"/>
+      <c r="J19" t="str">
+        <f>_xlfn.CONCAT("(2, ",B19,", ",A19,", ")</f>
         <v xml:space="preserve">(2, 18, 27, </v>
       </c>
-      <c r="I19" t="str">
-        <f t="shared" si="3"/>
+      <c r="K19" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 18, 27, 376, 371), </v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L19" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 18, 27, 383, 393), </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>26</v>
       </c>
@@ -5001,29 +5185,39 @@
         <v>24</v>
       </c>
       <c r="D20">
+        <v>408</v>
+      </c>
+      <c r="E20">
+        <v>412</v>
+      </c>
+      <c r="F20">
         <v>354</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>355</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>394</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <f t="shared" si="1"/>
         <v>393</v>
       </c>
-      <c r="H20" t="str">
-        <f t="shared" si="2"/>
+      <c r="J20" t="str">
+        <f>_xlfn.CONCAT("(2, ",B20,", ",A20,", ")</f>
         <v xml:space="preserve">(2, 19, 26, </v>
       </c>
-      <c r="I20" t="str">
-        <f t="shared" si="3"/>
+      <c r="K20" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 19, 26, 394, 393), </v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L20" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 19, 26, 408, 412), </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>25</v>
       </c>
@@ -5034,29 +5228,39 @@
         <v>23</v>
       </c>
       <c r="D21">
+        <v>420</v>
+      </c>
+      <c r="E21">
+        <v>421</v>
+      </c>
+      <c r="F21">
         <v>344</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>345</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>404</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>403</v>
       </c>
-      <c r="H21" t="str">
-        <f t="shared" si="2"/>
+      <c r="J21" t="str">
+        <f>_xlfn.CONCAT("(2, ",B21,", ",A21,", ")</f>
         <v xml:space="preserve">(2, 20, 25, </v>
       </c>
-      <c r="I21" t="str">
-        <f t="shared" si="3"/>
+      <c r="K21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 20, 25, 404, 403), </v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L21" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 20, 25, 420, 421), </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>24</v>
       </c>
@@ -5067,29 +5271,39 @@
         <v>22</v>
       </c>
       <c r="D22">
+        <v>440</v>
+      </c>
+      <c r="E22">
+        <v>442</v>
+      </c>
+      <c r="F22">
         <v>323</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>326</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>425</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>422</v>
       </c>
-      <c r="H22" t="str">
-        <f t="shared" si="2"/>
+      <c r="J22" t="str">
+        <f>_xlfn.CONCAT("(2, ",B22,", ",A22,", ")</f>
         <v xml:space="preserve">(2, 21, 24, </v>
       </c>
-      <c r="I22" t="str">
-        <f t="shared" si="3"/>
+      <c r="K22" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 21, 24, 425, 422), </v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 21, 24, 440, 442), </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>23</v>
       </c>
@@ -5100,29 +5314,39 @@
         <v>21</v>
       </c>
       <c r="D23">
+        <v>461</v>
+      </c>
+      <c r="E23">
+        <v>462</v>
+      </c>
+      <c r="F23">
         <v>302</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>303</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>446</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>445</v>
       </c>
-      <c r="H23" t="str">
-        <f t="shared" si="2"/>
+      <c r="J23" t="str">
+        <f>_xlfn.CONCAT("(2, ",B23,", ",A23,", ")</f>
         <v xml:space="preserve">(2, 22, 23, </v>
       </c>
-      <c r="I23" t="str">
-        <f t="shared" si="3"/>
+      <c r="K23" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 22, 23, 446, 445), </v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L23" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 22, 23, 461, 462), </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5133,29 +5357,39 @@
         <v>19</v>
       </c>
       <c r="D24">
+        <v>489</v>
+      </c>
+      <c r="E24">
+        <v>496</v>
+      </c>
+      <c r="F24">
         <v>263</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>273</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <f t="shared" si="0"/>
         <v>485</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <f t="shared" si="1"/>
         <v>475</v>
       </c>
-      <c r="H24" t="str">
-        <f t="shared" si="2"/>
+      <c r="J24" t="str">
+        <f>_xlfn.CONCAT("(2, ",B24,", ",A24,", ")</f>
         <v xml:space="preserve">(2, 23, 22, </v>
       </c>
-      <c r="I24" t="str">
-        <f t="shared" si="3"/>
+      <c r="K24" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 23, 22, 485, 475), </v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 23, 22, 489, 496), </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>21</v>
       </c>
@@ -5166,29 +5400,39 @@
         <v>20</v>
       </c>
       <c r="D25">
+        <v>502</v>
+      </c>
+      <c r="E25">
+        <v>504</v>
+      </c>
+      <c r="F25">
         <v>254</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>256</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>494</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <f t="shared" si="1"/>
         <v>492</v>
       </c>
-      <c r="H25" t="str">
-        <f t="shared" si="2"/>
+      <c r="J25" t="str">
+        <f>_xlfn.CONCAT("(2, ",B25,", ",A25,", ")</f>
         <v xml:space="preserve">(2, 24, 21, </v>
       </c>
-      <c r="I25" t="str">
-        <f t="shared" si="3"/>
+      <c r="K25" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 24, 21, 494, 492), </v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L25" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 24, 21, 502, 504), </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>20</v>
       </c>
@@ -5199,29 +5443,39 @@
         <v>18</v>
       </c>
       <c r="D26">
+        <v>519</v>
+      </c>
+      <c r="E26">
+        <v>527</v>
+      </c>
+      <c r="F26">
         <v>238</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>241</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <f t="shared" si="1"/>
         <v>507</v>
       </c>
-      <c r="H26" t="str">
-        <f t="shared" si="2"/>
+      <c r="J26" t="str">
+        <f>_xlfn.CONCAT("(2, ",B26,", ",A26,", ")</f>
         <v xml:space="preserve">(2, 25, 20, </v>
       </c>
-      <c r="I26" t="str">
-        <f t="shared" si="3"/>
+      <c r="K26" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 25, 20, 510, 507), </v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 25, 20, 519, 527), </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>19</v>
       </c>
@@ -5232,29 +5486,39 @@
         <v>17</v>
       </c>
       <c r="D27">
+        <v>540</v>
+      </c>
+      <c r="E27">
+        <v>543</v>
+      </c>
+      <c r="F27">
         <v>222</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>225</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <f t="shared" si="0"/>
         <v>526</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <f t="shared" si="1"/>
         <v>523</v>
       </c>
-      <c r="H27" t="str">
-        <f t="shared" si="2"/>
+      <c r="J27" t="str">
+        <f>_xlfn.CONCAT("(2, ",B27,", ",A27,", ")</f>
         <v xml:space="preserve">(2, 26, 19, </v>
       </c>
-      <c r="I27" t="str">
-        <f t="shared" si="3"/>
+      <c r="K27" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 26, 19, 526, 523), </v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L27" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 26, 19, 540, 543), </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>18</v>
       </c>
@@ -5265,29 +5529,39 @@
         <v>16</v>
       </c>
       <c r="D28">
+        <v>552</v>
+      </c>
+      <c r="E28">
+        <v>553</v>
+      </c>
+      <c r="F28">
         <v>205</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>214</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <f t="shared" si="0"/>
         <v>543</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <f t="shared" si="1"/>
         <v>534</v>
       </c>
-      <c r="H28" t="str">
-        <f t="shared" si="2"/>
+      <c r="J28" t="str">
+        <f>_xlfn.CONCAT("(2, ",B28,", ",A28,", ")</f>
         <v xml:space="preserve">(2, 27, 18, </v>
       </c>
-      <c r="I28" t="str">
-        <f t="shared" si="3"/>
+      <c r="K28" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 27, 18, 543, 534), </v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L28" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 27, 18, 552, 553), </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>17</v>
       </c>
@@ -5298,29 +5572,39 @@
         <v>15</v>
       </c>
       <c r="D29">
+        <v>561</v>
+      </c>
+      <c r="E29">
+        <v>563</v>
+      </c>
+      <c r="F29">
         <v>194</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>196</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <f t="shared" si="0"/>
         <v>554</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <f t="shared" si="1"/>
         <v>552</v>
       </c>
-      <c r="H29" t="str">
-        <f t="shared" si="2"/>
+      <c r="J29" t="str">
+        <f>_xlfn.CONCAT("(2, ",B29,", ",A29,", ")</f>
         <v xml:space="preserve">(2, 28, 17, </v>
       </c>
-      <c r="I29" t="str">
-        <f t="shared" si="3"/>
+      <c r="K29" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 28, 17, 554, 552), </v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 28, 17, 561, 563), </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>16</v>
       </c>
@@ -5331,29 +5615,39 @@
         <v>14</v>
       </c>
       <c r="D30">
+        <v>570</v>
+      </c>
+      <c r="E30">
+        <v>571</v>
+      </c>
+      <c r="F30">
         <v>185</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>187</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <f t="shared" si="0"/>
         <v>563</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <f t="shared" si="1"/>
         <v>561</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J30" t="str">
+        <f>_xlfn.CONCAT("(2, ",B30,", ",A30,", ")</f>
         <v xml:space="preserve">(2, 29, 16, </v>
       </c>
-      <c r="I30" t="str">
-        <f t="shared" si="3"/>
+      <c r="K30" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 29, 16, 563, 561), </v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L30" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 29, 16, 570, 571), </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>15</v>
       </c>
@@ -5364,29 +5658,39 @@
         <v>13</v>
       </c>
       <c r="D31">
+        <v>587</v>
+      </c>
+      <c r="E31">
+        <v>601</v>
+      </c>
+      <c r="F31">
         <v>162</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>168</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <f t="shared" si="0"/>
         <v>586</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <f t="shared" si="1"/>
         <v>580</v>
       </c>
-      <c r="H31" t="str">
-        <f t="shared" si="2"/>
+      <c r="J31" t="str">
+        <f>_xlfn.CONCAT("(2, ",B31,", ",A31,", ")</f>
         <v xml:space="preserve">(2, 30, 15, </v>
       </c>
-      <c r="I31" t="str">
-        <f t="shared" si="3"/>
+      <c r="K31" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 30, 15, 586, 580), </v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 30, 15, 587, 601), </v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>14</v>
       </c>
@@ -5397,29 +5701,39 @@
         <v>12</v>
       </c>
       <c r="D32">
+        <v>606</v>
+      </c>
+      <c r="E32">
+        <v>607</v>
+      </c>
+      <c r="F32">
         <v>154</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>158</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <f t="shared" si="0"/>
         <v>594</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <f t="shared" si="1"/>
         <v>590</v>
       </c>
-      <c r="H32" t="str">
-        <f t="shared" si="2"/>
+      <c r="J32" t="str">
+        <f>_xlfn.CONCAT("(2, ",B32,", ",A32,", ")</f>
         <v xml:space="preserve">(2, 31, 14, </v>
       </c>
-      <c r="I32" t="str">
-        <f t="shared" si="3"/>
+      <c r="K32" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 31, 14, 594, 590), </v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L32" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 31, 14, 606, 607), </v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>13</v>
       </c>
@@ -5430,29 +5744,39 @@
         <v>11</v>
       </c>
       <c r="D33">
+        <v>622</v>
+      </c>
+      <c r="E33">
+        <v>623</v>
+      </c>
+      <c r="F33">
         <v>135</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>137</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <f t="shared" si="0"/>
         <v>613</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <f t="shared" si="1"/>
         <v>611</v>
       </c>
-      <c r="H33" t="str">
-        <f t="shared" si="2"/>
+      <c r="J33" t="str">
+        <f>_xlfn.CONCAT("(2, ",B33,", ",A33,", ")</f>
         <v xml:space="preserve">(2, 32, 13, </v>
       </c>
-      <c r="I33" t="str">
-        <f t="shared" si="3"/>
+      <c r="K33" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 32, 13, 613, 611), </v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L33" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 32, 13, 622, 623), </v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>12</v>
       </c>
@@ -5463,29 +5787,39 @@
         <v>10</v>
       </c>
       <c r="D34">
+        <v>630</v>
+      </c>
+      <c r="E34">
+        <v>631</v>
+      </c>
+      <c r="F34">
         <v>127</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>128</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <f t="shared" si="0"/>
         <v>621</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <f t="shared" si="1"/>
         <v>620</v>
       </c>
-      <c r="H34" t="str">
-        <f t="shared" si="2"/>
+      <c r="J34" t="str">
+        <f>_xlfn.CONCAT("(2, ",B34,", ",A34,", ")</f>
         <v xml:space="preserve">(2, 33, 12, </v>
       </c>
-      <c r="I34" t="str">
-        <f t="shared" si="3"/>
+      <c r="K34" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 33, 12, 621, 620), </v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L34" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 33, 12, 630, 631), </v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>11</v>
       </c>
@@ -5496,29 +5830,39 @@
         <v>43</v>
       </c>
       <c r="D35">
+        <v>644</v>
+      </c>
+      <c r="E35">
+        <v>642</v>
+      </c>
+      <c r="F35">
         <v>112</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>114</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <f t="shared" si="0"/>
         <v>636</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <f t="shared" si="1"/>
         <v>634</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="2"/>
+      <c r="J35" t="str">
+        <f>_xlfn.CONCAT("(2, ",B35,", ",A35,", ")</f>
         <v xml:space="preserve">(2, 34, 11, </v>
       </c>
-      <c r="I35" t="str">
-        <f t="shared" si="3"/>
+      <c r="K35" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 34, 11, 636, 634), </v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L35" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 34, 11, 644, 642), </v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>10</v>
       </c>
@@ -5529,29 +5873,39 @@
         <v>9</v>
       </c>
       <c r="D36">
+        <v>661</v>
+      </c>
+      <c r="E36">
+        <v>662</v>
+      </c>
+      <c r="F36">
         <v>94</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>96</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <f t="shared" si="0"/>
         <v>654</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <f t="shared" si="1"/>
         <v>652</v>
       </c>
-      <c r="H36" t="str">
-        <f t="shared" si="2"/>
+      <c r="J36" t="str">
+        <f>_xlfn.CONCAT("(2, ",B36,", ",A36,", ")</f>
         <v xml:space="preserve">(2, 35, 10, </v>
       </c>
-      <c r="I36" t="str">
-        <f t="shared" si="3"/>
+      <c r="K36" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 35, 10, 654, 652), </v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L36" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 35, 10, 661, 662), </v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>9</v>
       </c>
@@ -5562,29 +5916,39 @@
         <v>8</v>
       </c>
       <c r="D37">
+        <v>669</v>
+      </c>
+      <c r="E37">
+        <v>670</v>
+      </c>
+      <c r="F37">
         <v>85</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>87</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <f t="shared" si="1"/>
         <v>661</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" si="2"/>
+      <c r="J37" t="str">
+        <f>_xlfn.CONCAT("(2, ",B37,", ",A37,", ")</f>
         <v xml:space="preserve">(2, 36, 9, </v>
       </c>
-      <c r="I37" t="str">
-        <f t="shared" si="3"/>
+      <c r="K37" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 36, 9, 663, 661), </v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L37" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 36, 9, 669, 670), </v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>8</v>
       </c>
@@ -5595,29 +5959,39 @@
         <v>7</v>
       </c>
       <c r="D38">
+        <v>675</v>
+      </c>
+      <c r="E38">
+        <v>677</v>
+      </c>
+      <c r="F38">
         <v>78</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>80</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <f t="shared" si="0"/>
         <v>670</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <f t="shared" si="1"/>
         <v>668</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="2"/>
+      <c r="J38" t="str">
+        <f>_xlfn.CONCAT("(2, ",B38,", ",A38,", ")</f>
         <v xml:space="preserve">(2, 37, 8, </v>
       </c>
-      <c r="I38" t="str">
-        <f t="shared" si="3"/>
+      <c r="K38" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 37, 8, 670, 668), </v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L38" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 37, 8, 675, 677), </v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>7</v>
       </c>
@@ -5628,29 +6002,39 @@
         <v>6</v>
       </c>
       <c r="D39">
+        <v>690</v>
+      </c>
+      <c r="E39">
+        <v>693</v>
+      </c>
+      <c r="F39">
         <v>62</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>65</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <f t="shared" si="0"/>
         <v>686</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <f t="shared" si="1"/>
         <v>683</v>
       </c>
-      <c r="H39" t="str">
-        <f t="shared" si="2"/>
+      <c r="J39" t="str">
+        <f>_xlfn.CONCAT("(2, ",B39,", ",A39,", ")</f>
         <v xml:space="preserve">(2, 38, 7, </v>
       </c>
-      <c r="I39" t="str">
-        <f t="shared" si="3"/>
+      <c r="K39" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 38, 7, 686, 683), </v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L39" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 38, 7, 690, 693), </v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>6</v>
       </c>
@@ -5661,29 +6045,39 @@
         <v>5</v>
       </c>
       <c r="D40">
+        <v>704</v>
+      </c>
+      <c r="E40">
+        <v>705</v>
+      </c>
+      <c r="F40">
         <v>51</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>52</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <f t="shared" si="0"/>
         <v>697</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <f t="shared" si="1"/>
         <v>696</v>
       </c>
-      <c r="H40" t="str">
-        <f t="shared" si="2"/>
+      <c r="J40" t="str">
+        <f>_xlfn.CONCAT("(2, ",B40,", ",A40,", ")</f>
         <v xml:space="preserve">(2, 39, 6, </v>
       </c>
-      <c r="I40" t="str">
-        <f t="shared" si="3"/>
+      <c r="K40" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 39, 6, 697, 696), </v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L40" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 39, 6, 704, 705), </v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>5</v>
       </c>
@@ -5694,29 +6088,39 @@
         <v>4</v>
       </c>
       <c r="D41">
+        <v>717</v>
+      </c>
+      <c r="E41">
+        <v>718</v>
+      </c>
+      <c r="F41">
         <v>36</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>37</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <f t="shared" si="0"/>
         <v>712</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <f t="shared" si="1"/>
         <v>711</v>
       </c>
-      <c r="H41" t="str">
-        <f t="shared" si="2"/>
+      <c r="J41" t="str">
+        <f>_xlfn.CONCAT("(2, ",B41,", ",A41,", ")</f>
         <v xml:space="preserve">(2, 40, 5, </v>
       </c>
-      <c r="I41" t="str">
-        <f t="shared" si="3"/>
+      <c r="K41" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 40, 5, 712, 711), </v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L41" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 40, 5, 717, 718), </v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4</v>
       </c>
@@ -5727,29 +6131,39 @@
         <v>3</v>
       </c>
       <c r="D42">
+        <v>727</v>
+      </c>
+      <c r="E42">
+        <v>728</v>
+      </c>
+      <c r="F42">
         <v>26</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>27</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <f t="shared" si="0"/>
         <v>722</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <f t="shared" si="1"/>
         <v>721</v>
       </c>
-      <c r="H42" t="str">
-        <f t="shared" si="2"/>
+      <c r="J42" t="str">
+        <f>_xlfn.CONCAT("(2, ",B42,", ",A42,", ")</f>
         <v xml:space="preserve">(2, 41, 4, </v>
       </c>
-      <c r="I42" t="str">
-        <f t="shared" si="3"/>
+      <c r="K42" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 41, 4, 722, 721), </v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L42" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 41, 4, 727, 728), </v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>3</v>
       </c>
@@ -5760,29 +6174,39 @@
         <v>2</v>
       </c>
       <c r="D43">
+        <v>736</v>
+      </c>
+      <c r="E43">
+        <v>737</v>
+      </c>
+      <c r="F43">
         <v>16</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>17</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <f t="shared" si="0"/>
         <v>732</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <f t="shared" si="1"/>
         <v>731</v>
       </c>
-      <c r="H43" t="str">
-        <f t="shared" si="2"/>
+      <c r="J43" t="str">
+        <f>_xlfn.CONCAT("(2, ",B43,", ",A43,", ")</f>
         <v xml:space="preserve">(2, 42, 3, </v>
       </c>
-      <c r="I43" t="str">
-        <f t="shared" si="3"/>
+      <c r="K43" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 42, 3, 732, 731), </v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L43" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 42, 3, 736, 737), </v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2</v>
       </c>
@@ -5793,29 +6217,39 @@
         <v>1</v>
       </c>
       <c r="D44">
+        <v>750</v>
+      </c>
+      <c r="E44">
+        <v>751</v>
+      </c>
+      <c r="F44">
         <v>2</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>3</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <f t="shared" si="0"/>
         <v>746</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <f t="shared" si="1"/>
         <v>745</v>
       </c>
-      <c r="H44" t="str">
-        <f t="shared" si="2"/>
+      <c r="J44" t="str">
+        <f>_xlfn.CONCAT("(2, ",B44,", ",A44,", ")</f>
         <v xml:space="preserve">(2, 43, 2, </v>
       </c>
-      <c r="I44" t="str">
-        <f t="shared" si="3"/>
+      <c r="K44" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 43, 2, 746, 745), </v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L44" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 43, 2, 750, 751), </v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1</v>
       </c>
@@ -5826,30 +6260,40 @@
         <v>0</v>
       </c>
       <c r="D45">
+        <v>754</v>
+      </c>
+      <c r="E45">
+        <v>754</v>
+      </c>
+      <c r="F45">
         <v>0</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>0</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <f t="shared" si="0"/>
         <v>748</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <f t="shared" si="1"/>
         <v>748</v>
       </c>
-      <c r="H45" t="str">
-        <f t="shared" si="2"/>
+      <c r="J45" t="str">
+        <f>_xlfn.CONCAT("(2, ",B45,", ",A45,", ")</f>
         <v xml:space="preserve">(2, 44, 1, </v>
       </c>
-      <c r="I45" t="str">
-        <f t="shared" si="3"/>
+      <c r="K45" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">(2, 44, 1, 748, 748), </v>
       </c>
+      <c r="L45" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">(2, 44, 1, 754, 754), </v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G45">
     <sortCondition descending="1" ref="A2:A45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
